--- a/50_重要/学习笔记_源代码管理工具_Git.xlsx
+++ b/50_重要/学习笔记_源代码管理工具_Git.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <sheet name="命令" sheetId="4" r:id="rId6"/>
     <sheet name="示例" sheetId="3" r:id="rId7"/>
     <sheet name="Github" sheetId="13" r:id="rId8"/>
-    <sheet name="总结" sheetId="8" r:id="rId9"/>
-    <sheet name="参考" sheetId="7" r:id="rId10"/>
+    <sheet name="Gitee" sheetId="14" r:id="rId9"/>
+    <sheet name="总结" sheetId="8" r:id="rId10"/>
+    <sheet name="参考" sheetId="7" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="materiallist">'[1]Config File Definitions'!$B$92:$B$124</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="619">
   <si>
     <t>git config --global --unset https.proxy</t>
   </si>
@@ -2298,9 +2299,6 @@
     <t>空白地方右键--&gt;TortoiseGit--&gt;Settings，将Network中的SSH client改为Git目录下的ssh.exe。</t>
   </si>
   <si>
-    <t>空白地方右键--&gt;TortoiseGit--&gt;Settings，General--&gt;点击"Re-run First Start Wizard"</t>
-  </si>
-  <si>
     <t>一直点击"下一步"，直到如下窗口，选择"OpenSSH"，点击"完成"。</t>
   </si>
   <si>
@@ -2323,18 +2321,6 @@
   </si>
   <si>
     <t>按3次Enter，不需要设置名称与密码。</t>
-  </si>
-  <si>
-    <t>C:\Users\Administrator\.ssh</t>
-  </si>
-  <si>
-    <t>ssh-keygen -t rsa -C "guohui.huang@ge.com"</t>
-  </si>
-  <si>
-    <t>git config --global user.email "guohui.huang@ge.com"</t>
-  </si>
-  <si>
-    <t>git config --global user.name "guohui.huang"</t>
   </si>
   <si>
     <t>第一次输入的为文件名</t>
@@ -2652,6 +2638,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>也是目前最流行的分布式版本控制系统，它和其他版本控制系统的主要差别在于</t>
@@ -2670,6 +2657,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>只关心文件数据的整体是否发生变化，而大多数版本其他系统只关心文件内容的具体差异，</t>
@@ -2688,6 +2676,7 @@
         <sz val="12"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>特性</t>
@@ -2812,6 +2801,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>为例</t>
@@ -2852,6 +2842,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中输入</t>
@@ -2870,6 +2861,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，如果出现如下信息，即表示安装成功</t>
@@ -2885,6 +2877,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>客户端配置</t>
@@ -2978,6 +2971,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，点击</t>
@@ -3010,6 +3004,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>，点击</t>
@@ -3093,6 +3088,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>”，进入安装导向界面，点击</t>
@@ -4909,12 +4905,652 @@
   <si>
     <t>$ git diff --shortstat "@{0 day ago}"</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">## </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>参与贡献</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Fork </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本仓库</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新建 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Feat_xxx </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>分支</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>提交代码</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新建 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Pull Request</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">使用 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Readme\_XXX.md </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">来支持不同的语言，例如 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Readme\_en.md, Readme\_zh.md</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gitee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">官方博客 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[blog.gitee.com]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://blog.gitee.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">你可以 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[https://gitee.com/explore]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://gitee.com/explore</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">这个地址来了解 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gitee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>上的优秀开源项目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[GVP]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://gitee.com/gvp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">全称是 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gitee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最有价值开源项目，是综合评定出的优秀开源项目</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gitee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">官方提供的使用手册 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[https://gitee.com/help]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://gitee.com/help</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gitee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">封面人物是一档用来展示 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Gitee </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">会员风采的栏目 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[https://gitee.com/gitee-stars/]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://gitee.com/gitee-stars/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF000000"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">## </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF660E7A"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>特技</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gitee的一些说明：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Users\Administrator\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global user.name "guo7892000"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git config --global user.email "guo7892000@126.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssh-keygen -t rsa -C "guo7892000@126.com"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空白地方右键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>--&gt;TortoiseGit--&gt;Settings</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>General--&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF4D4D4D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Re-run First Start Wizard"</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="82">
+  <fonts count="93">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5246,12 +5882,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -5271,24 +5901,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Verdana"/>
       <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -5512,8 +6128,113 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF660E7A"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF660E7A"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF0000FF"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF000000"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5550,6 +6271,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -5579,7 +6306,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5708,17 +6435,17 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5728,103 +6455,116 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="59" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="0" fontId="64" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="68" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="73" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="91" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8556,7 +9296,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39.75">
       <c r="A1" s="57" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
@@ -8566,27 +9306,27 @@
     </row>
     <row r="3" spans="1:15" ht="16.5">
       <c r="B3" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="B4" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="B5" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="B6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="B7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -8594,12 +9334,12 @@
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="B9" s="59" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="B10" s="60" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -8617,7 +9357,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="B11" s="60" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="61"/>
@@ -8635,7 +9375,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="B12" s="60" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -8654,7 +9394,7 @@
     <row r="13" spans="1:15">
       <c r="B13" s="61"/>
       <c r="C13" s="61" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D13" s="61"/>
       <c r="E13" s="61"/>
@@ -8671,7 +9411,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="B14" s="60" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -8689,7 +9429,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="B15" s="60" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -8707,7 +9447,7 @@
     </row>
     <row r="16" spans="1:15">
       <c r="B16" s="60" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -8725,7 +9465,7 @@
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="60" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -8918,6 +9658,459 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T87"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="36" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" s="36" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="20.25">
+      <c r="A43" s="37" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" ht="15.75">
+      <c r="B44" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="L44" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
+      <c r="B45" s="39" t="s">
+        <v>391</v>
+      </c>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="L45" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+    </row>
+    <row r="46" spans="1:20">
+      <c r="B46" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="L46" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+    </row>
+    <row r="47" spans="1:20">
+      <c r="B47" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
+      <c r="J47" s="40"/>
+      <c r="L47" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="M47" s="40"/>
+      <c r="N47" s="40"/>
+      <c r="O47" s="40"/>
+      <c r="P47" s="40"/>
+      <c r="Q47" s="40"/>
+      <c r="R47" s="40"/>
+      <c r="S47" s="40"/>
+      <c r="T47" s="40"/>
+    </row>
+    <row r="48" spans="1:20">
+      <c r="B48" s="39" t="s">
+        <v>394</v>
+      </c>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="L48" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="M48" s="40"/>
+      <c r="N48" s="40"/>
+      <c r="O48" s="40"/>
+      <c r="P48" s="40"/>
+      <c r="Q48" s="40"/>
+      <c r="R48" s="40"/>
+      <c r="S48" s="40"/>
+      <c r="T48" s="40"/>
+    </row>
+    <row r="49" spans="2:20">
+      <c r="B49" s="39" t="s">
+        <v>395</v>
+      </c>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="40"/>
+      <c r="L49" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="M49" s="40"/>
+      <c r="N49" s="40"/>
+      <c r="O49" s="40"/>
+      <c r="P49" s="40"/>
+      <c r="Q49" s="40"/>
+      <c r="R49" s="40"/>
+      <c r="S49" s="40"/>
+      <c r="T49" s="40"/>
+    </row>
+    <row r="50" spans="2:20">
+      <c r="B50" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="L50" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="M50" s="40"/>
+      <c r="N50" s="40"/>
+      <c r="O50" s="40"/>
+      <c r="P50" s="40"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+    </row>
+    <row r="51" spans="2:20">
+      <c r="B51" s="39" t="s">
+        <v>397</v>
+      </c>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="L51" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="M51" s="40"/>
+      <c r="N51" s="40"/>
+      <c r="O51" s="40"/>
+      <c r="P51" s="40"/>
+      <c r="Q51" s="40"/>
+      <c r="R51" s="40"/>
+      <c r="S51" s="40"/>
+      <c r="T51" s="40"/>
+    </row>
+    <row r="52" spans="2:20">
+      <c r="B52" s="39" t="s">
+        <v>398</v>
+      </c>
+      <c r="C52" s="40"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="L52" s="39" t="s">
+        <v>481</v>
+      </c>
+      <c r="M52" s="40"/>
+      <c r="N52" s="40"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="40"/>
+    </row>
+    <row r="53" spans="2:20">
+      <c r="B53" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="40"/>
+      <c r="L53" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="M53" s="40"/>
+      <c r="N53" s="40"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+    </row>
+    <row r="55" spans="2:20" ht="15.75">
+      <c r="B55" s="38" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56" spans="2:20">
+      <c r="C56" t="s">
+        <v>401</v>
+      </c>
+      <c r="D56" t="s">
+        <v>402</v>
+      </c>
+      <c r="E56" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="58" spans="2:20" ht="15.75">
+      <c r="B58" s="38" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" spans="2:20">
+      <c r="B59" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C59" s="42"/>
+    </row>
+    <row r="60" spans="2:20">
+      <c r="B60" s="42" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="42"/>
+    </row>
+    <row r="61" spans="2:20">
+      <c r="B61" s="42" t="s">
+        <v>384</v>
+      </c>
+      <c r="C61" s="42"/>
+    </row>
+    <row r="62" spans="2:20">
+      <c r="B62" s="42" t="s">
+        <v>385</v>
+      </c>
+      <c r="C62" s="42"/>
+    </row>
+    <row r="63" spans="2:20">
+      <c r="B63" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
+      <c r="P63" s="35"/>
+      <c r="Q63" s="35"/>
+    </row>
+    <row r="64" spans="2:20">
+      <c r="B64" s="43"/>
+      <c r="C64" s="43" t="s">
+        <v>406</v>
+      </c>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="C65" s="43"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
+      <c r="P66" s="35"/>
+      <c r="Q66" s="35"/>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="44" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" ht="15.75">
+      <c r="B80" s="38" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81" s="41" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82" s="41"/>
+      <c r="D82" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="D87" t="s">
+        <v>485</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -8938,32 +10131,32 @@
     </row>
     <row r="3" spans="1:2" ht="18">
       <c r="A3" s="53" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
       <c r="A5" s="50" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="7" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -8975,6 +10168,7 @@
     <hyperlink ref="B8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -8985,7 +10179,7 @@
   </sheetPr>
   <dimension ref="A1:K163"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A163" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A172" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -9008,25 +10202,25 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" s="63" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="2:11">
       <c r="C26" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="65" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="K27" s="65" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="2:11">
@@ -9097,10 +10291,10 @@
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="65" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="K50" s="65" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="2:11">
@@ -9108,10 +10302,10 @@
     </row>
     <row r="72" spans="2:11">
       <c r="B72" s="65" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="K72" s="65" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="73" spans="2:11">
@@ -9164,10 +10358,10 @@
     </row>
     <row r="94" spans="2:11">
       <c r="B94" s="65" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K94" s="65" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="96" spans="2:11">
@@ -9220,10 +10414,10 @@
     </row>
     <row r="116" spans="2:11">
       <c r="B116" s="65" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="K116" s="65" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="118" spans="2:11">
@@ -9240,25 +10434,25 @@
     </row>
     <row r="138" spans="2:2">
       <c r="B138" s="65" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="161" spans="2:10">
       <c r="B161" s="58" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="162" spans="2:10" ht="15">
       <c r="B162" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J162" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="163" spans="2:10">
       <c r="B163" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -9276,25 +10470,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T141"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="S150" sqref="S150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="18">
       <c r="A1" s="50" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="B2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="B3" s="19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
@@ -9304,7 +10498,7 @@
     <row r="4" spans="1:20">
       <c r="B4" s="66"/>
       <c r="C4" s="67" t="s">
-        <v>427</v>
+        <v>615</v>
       </c>
       <c r="D4" s="68"/>
       <c r="E4" s="68"/>
@@ -9313,7 +10507,7 @@
     </row>
     <row r="5" spans="1:20">
       <c r="B5" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" s="66"/>
       <c r="D5" s="66"/>
@@ -9323,7 +10517,7 @@
     <row r="6" spans="1:20">
       <c r="B6" s="66"/>
       <c r="C6" s="67" t="s">
-        <v>426</v>
+        <v>616</v>
       </c>
       <c r="D6" s="68"/>
       <c r="E6" s="68"/>
@@ -9333,19 +10527,19 @@
     </row>
     <row r="7" spans="1:20">
       <c r="B7" s="22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C7" s="69"/>
       <c r="D7" s="66"/>
       <c r="E7" s="66"/>
       <c r="F7" s="66"/>
       <c r="T7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="B8" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C8" s="69"/>
       <c r="D8" s="66"/>
@@ -9355,7 +10549,7 @@
     <row r="9" spans="1:20">
       <c r="B9" s="66"/>
       <c r="C9" s="67" t="s">
-        <v>425</v>
+        <v>617</v>
       </c>
       <c r="D9" s="67"/>
       <c r="E9" s="68"/>
@@ -9364,7 +10558,7 @@
     </row>
     <row r="10" spans="1:20">
       <c r="B10" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C10" s="66"/>
       <c r="D10" s="66"/>
@@ -9374,7 +10568,7 @@
     <row r="11" spans="1:20">
       <c r="B11" s="66"/>
       <c r="C11" s="19" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D11" s="66"/>
       <c r="E11" s="66"/>
@@ -9384,7 +10578,7 @@
     <row r="12" spans="1:20">
       <c r="B12" s="66"/>
       <c r="C12" s="19" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D12" s="70"/>
       <c r="E12" s="70"/>
@@ -9392,7 +10586,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="B13" s="19" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C13" s="66"/>
       <c r="D13" s="66"/>
@@ -9401,8 +10595,8 @@
     </row>
     <row r="14" spans="1:20">
       <c r="B14" s="66"/>
-      <c r="C14" s="71" t="s">
-        <v>424</v>
+      <c r="C14" s="112" t="s">
+        <v>614</v>
       </c>
       <c r="D14" s="68"/>
       <c r="E14" s="68"/>
@@ -9410,12 +10604,12 @@
     </row>
     <row r="16" spans="1:20">
       <c r="B16" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -9423,12 +10617,12 @@
     </row>
     <row r="35" spans="1:11">
       <c r="B35" s="45" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:11">
       <c r="B36" s="45" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="23.25">
@@ -9448,10 +10642,10 @@
     </row>
     <row r="41" spans="1:11">
       <c r="B41" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="K41" s="45" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="66" spans="2:2">
@@ -9461,27 +10655,27 @@
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="51" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
     <row r="68" spans="2:2">
       <c r="B68" s="46" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="69" spans="2:2">
       <c r="B69" s="46" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="70" spans="2:2">
       <c r="B70" s="45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="46" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" spans="2:7">
@@ -9491,7 +10685,7 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="52" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C99" s="12" t="s">
         <v>408</v>
@@ -9503,7 +10697,7 @@
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="52" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>409</v>
@@ -9515,17 +10709,17 @@
     </row>
     <row r="139" spans="2:2">
       <c r="B139" s="46" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="140" spans="2:2">
       <c r="B140" s="46" t="s">
-        <v>415</v>
+        <v>618</v>
       </c>
     </row>
     <row r="141" spans="2:2">
       <c r="B141" s="45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -10477,142 +11671,142 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A135" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A135" workbookViewId="0">
       <selection activeCell="B226" sqref="B226:B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="77"/>
-    <col min="3" max="5" width="8.875" style="72"/>
+    <col min="2" max="2" width="8.875" style="76"/>
+    <col min="3" max="5" width="8.875" style="71"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="90" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="78" t="s">
+      <c r="B2" s="77" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="78" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="91" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="87" t="s">
-        <v>595</v>
-      </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="94" t="s">
+      <c r="B9" s="86" t="s">
+        <v>590</v>
+      </c>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="93" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="87" t="s">
+      <c r="B10" s="86" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="81" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="80" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="93" t="s">
-        <v>594</v>
-      </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="94" t="s">
+      <c r="B12" s="92" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="93" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="83"/>
+      <c r="B13" s="82"/>
     </row>
     <row r="14" spans="1:7" ht="18">
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="91" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="78" t="s">
-        <v>564</v>
+      <c r="B15" s="77" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="87" t="s">
-        <v>596</v>
-      </c>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="89"/>
-      <c r="G16" s="81" t="s">
+      <c r="B16" s="86" t="s">
+        <v>591</v>
+      </c>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="80" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="86" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="89"/>
-      <c r="G17" s="81" t="s">
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="80" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="82" t="s">
-        <v>565</v>
-      </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
+      <c r="B18" s="81" t="s">
+        <v>560</v>
+      </c>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="81" t="s">
+      <c r="G18" s="80" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="82" t="s">
-        <v>566</v>
-      </c>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
+      <c r="B19" s="81" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="2:7" ht="14.25">
@@ -10622,1487 +11816,1487 @@
       <c r="E20"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="79" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="94" t="s">
+        <v>593</v>
+      </c>
+      <c r="C22" s="72"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="81" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="80" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="81" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="81" t="s">
+        <v>588</v>
+      </c>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="80" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="86" t="s">
+        <v>127</v>
+      </c>
+      <c r="C30" s="87"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="87"/>
+      <c r="F30" s="80" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="83"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="84" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="88"/>
+      <c r="G33" s="80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="88"/>
+      <c r="G34" s="80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="86" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="87"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="88"/>
+      <c r="G35" s="80" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="87"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="88"/>
+      <c r="G36" s="80" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="86" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="88"/>
+      <c r="G37" s="80" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="88"/>
+      <c r="G38" s="80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="83"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="87"/>
+      <c r="D41" s="87"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="80" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="97" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="87"/>
+      <c r="D42" s="87"/>
+      <c r="E42" s="87"/>
+      <c r="F42" s="88"/>
+      <c r="G42" s="80" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="87"/>
+      <c r="D43" s="87"/>
+      <c r="E43" s="87"/>
+      <c r="F43" s="88"/>
+      <c r="G43" s="80" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="87"/>
+      <c r="D44" s="87"/>
+      <c r="E44" s="87"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="89" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="C45" s="87"/>
+      <c r="D45" s="87"/>
+      <c r="E45" s="87"/>
+      <c r="F45" s="88"/>
+      <c r="G45" s="80" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="87"/>
+      <c r="D46" s="87"/>
+      <c r="E46" s="87"/>
+      <c r="F46" s="88"/>
+      <c r="G46" s="80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="97" t="s">
+        <v>595</v>
+      </c>
+      <c r="C47" s="87"/>
+      <c r="D47" s="87"/>
+      <c r="E47" s="87"/>
+      <c r="F47" s="88"/>
+      <c r="H47" s="80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="88"/>
+      <c r="G48" s="80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C49" s="87"/>
+      <c r="D49" s="87"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="88"/>
+      <c r="G49" s="80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="82"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="87"/>
+      <c r="D51" s="87"/>
+      <c r="E51" s="87"/>
+      <c r="G51" s="80" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="97" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="G52" s="80" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="97" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="87"/>
+      <c r="D53" s="87"/>
+      <c r="E53" s="87"/>
+      <c r="G53" s="80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="82"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="86" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="87"/>
+      <c r="D55" s="87"/>
+      <c r="E55" s="87"/>
+      <c r="G55" s="80" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="C57" s="87"/>
+      <c r="D57" s="87"/>
+      <c r="E57" s="87"/>
+      <c r="G57" s="80" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="86" t="s">
+        <v>167</v>
+      </c>
+      <c r="C59" s="87"/>
+      <c r="D59" s="87"/>
+      <c r="E59" s="87"/>
+      <c r="G59" s="80" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="79" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="C62" s="72"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="72"/>
+      <c r="G62" s="80" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="81" t="s">
+        <v>173</v>
+      </c>
+      <c r="C63" s="72"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="G63" s="80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="C64" s="72"/>
+      <c r="D64" s="72"/>
+      <c r="E64" s="72"/>
+      <c r="G64" s="80" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
+      <c r="G65" s="80" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C67" s="72"/>
+      <c r="D67" s="72"/>
+      <c r="E67" s="72"/>
+      <c r="G67" s="80" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="81" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" s="72"/>
+      <c r="D68" s="72"/>
+      <c r="E68" s="72"/>
+      <c r="G68" s="80" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="81" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="G69" s="80" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="82"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C71" s="72"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
+      <c r="G71" s="80" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="C73" s="72"/>
+      <c r="D73" s="72"/>
+      <c r="E73" s="72"/>
+      <c r="G73" s="80" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="G76" s="80" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="82"/>
+      <c r="C77" s="99"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="97" t="s">
+        <v>596</v>
+      </c>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
+      <c r="E78" s="98"/>
+      <c r="G78" s="82" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="81" t="s">
+        <v>563</v>
+      </c>
+      <c r="C79" s="72"/>
+      <c r="D79" s="72"/>
+      <c r="E79" s="72"/>
+      <c r="G79" s="80" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="81" t="s">
+        <v>564</v>
+      </c>
+      <c r="C80" s="72"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="G80" s="80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="81" t="s">
+        <v>565</v>
+      </c>
+      <c r="C81" s="72"/>
+      <c r="D81" s="72"/>
+      <c r="E81" s="72"/>
+      <c r="G81" s="80" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="81" t="s">
+        <v>566</v>
+      </c>
+      <c r="C82" s="72"/>
+      <c r="D82" s="72"/>
+      <c r="E82" s="72"/>
+      <c r="G82" s="80" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="81" t="s">
+        <v>567</v>
+      </c>
+      <c r="C83" s="72"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="G83" s="80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="81" t="s">
+        <v>568</v>
+      </c>
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="G84" s="80" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="81" t="s">
+        <v>569</v>
+      </c>
+      <c r="C85" s="72"/>
+      <c r="D85" s="72"/>
+      <c r="E85" s="72"/>
+      <c r="G85" s="80" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="C87" s="72"/>
+      <c r="D87" s="72"/>
+      <c r="E87" s="72"/>
+      <c r="G87" s="80" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="82"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="81" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="72"/>
+      <c r="D89" s="72"/>
+      <c r="E89" s="72"/>
+      <c r="G89" s="80" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="81" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="72"/>
+      <c r="D91" s="72"/>
+      <c r="E91" s="72"/>
+      <c r="G91" s="80" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="96"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="95" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="72"/>
+      <c r="D93" s="72"/>
+      <c r="E93" s="72"/>
+      <c r="G93" s="80" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="95" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" s="72"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="72"/>
+      <c r="G94" s="80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="72"/>
+      <c r="D95" s="72"/>
+      <c r="E95" s="72"/>
+      <c r="G95" s="80" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="95" t="s">
+        <v>208</v>
+      </c>
+      <c r="C96" s="72"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="72"/>
+      <c r="G96" s="80" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="95" t="s">
+        <v>600</v>
+      </c>
+      <c r="C97" s="72"/>
+      <c r="D97" s="72"/>
+      <c r="E97" s="72"/>
+      <c r="G97" s="80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="82"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="95" t="s">
+        <v>211</v>
+      </c>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="G99" s="80" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="72"/>
+      <c r="G100" s="80" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="81" t="s">
+        <v>215</v>
+      </c>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="G101" s="80" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C103" s="72"/>
+      <c r="D103" s="72"/>
+      <c r="E103" s="72"/>
+      <c r="G103" s="80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="100" t="s">
+        <v>219</v>
+      </c>
+      <c r="C105" s="72"/>
+      <c r="D105" s="72"/>
+      <c r="E105" s="72"/>
+      <c r="G105" s="80" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="82"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="84" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="95" t="s">
         <v>598</v>
       </c>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="81" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="81" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="96" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="81" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="82" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="81" t="s">
+      <c r="C108" s="72"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="G108" s="80" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="73"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="81" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="82" t="s">
-        <v>593</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="87" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="88"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="88"/>
-      <c r="F30" s="81" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="84"/>
-    </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="85" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="88"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="81" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" s="98" t="s">
-        <v>132</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="88"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="81" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" s="87" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="88"/>
-      <c r="E35" s="88"/>
-      <c r="F35" s="89"/>
-      <c r="G35" s="81" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" s="87" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
-      <c r="F36" s="89"/>
-      <c r="G36" s="81" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" s="87" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="88"/>
-      <c r="D37" s="88"/>
-      <c r="E37" s="88"/>
-      <c r="F37" s="89"/>
-      <c r="G37" s="81" t="s">
+    <row r="109" spans="2:7">
+      <c r="B109" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="72"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="72"/>
+      <c r="G109" s="80" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="72"/>
+      <c r="D110" s="72"/>
+      <c r="E110" s="72"/>
+      <c r="G110" s="80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="C111" s="87"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="87"/>
+      <c r="G111" s="89" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="81" t="s">
+        <v>273</v>
+      </c>
+      <c r="C113" s="72"/>
+      <c r="D113" s="72"/>
+      <c r="E113" s="72"/>
+      <c r="G113" s="80" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="82"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="95" t="s">
+        <v>269</v>
+      </c>
+      <c r="C115" s="72"/>
+      <c r="D115" s="72"/>
+      <c r="E115" s="72"/>
+      <c r="G115" s="80" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="96"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="95" t="s">
+        <v>228</v>
+      </c>
+      <c r="C117" s="72"/>
+      <c r="D117" s="72"/>
+      <c r="E117" s="72"/>
+      <c r="G117" s="80" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="81" t="s">
+        <v>230</v>
+      </c>
+      <c r="C118" s="72"/>
+      <c r="D118" s="72"/>
+      <c r="E118" s="72"/>
+      <c r="G118" s="80" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="81" t="s">
+        <v>232</v>
+      </c>
+      <c r="C119" s="72"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="G119" s="80" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="82"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="84" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C122" s="87"/>
+      <c r="D122" s="87"/>
+      <c r="E122" s="87"/>
+      <c r="G122" s="80" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="86" t="s">
+        <v>237</v>
+      </c>
+      <c r="C123" s="87"/>
+      <c r="D123" s="87"/>
+      <c r="E123" s="87"/>
+      <c r="G123" s="80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="86" t="s">
+        <v>239</v>
+      </c>
+      <c r="C124" s="87"/>
+      <c r="D124" s="87"/>
+      <c r="E124" s="87"/>
+      <c r="G124" s="80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="C126" s="87"/>
+      <c r="D126" s="87"/>
+      <c r="E126" s="87"/>
+      <c r="F126" s="8"/>
+      <c r="G126" s="80" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="95" t="s">
+        <v>243</v>
+      </c>
+      <c r="C127" s="72"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="8"/>
+      <c r="G127" s="80" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="86" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128" s="87"/>
+      <c r="D128" s="87"/>
+      <c r="E128" s="87"/>
+      <c r="F128" s="8"/>
+      <c r="G128" s="80" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="86" t="s">
+        <v>247</v>
+      </c>
+      <c r="C129" s="87"/>
+      <c r="D129" s="87"/>
+      <c r="E129" s="87"/>
+      <c r="F129" s="8"/>
+      <c r="G129" s="80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="86" t="s">
+        <v>249</v>
+      </c>
+      <c r="C130" s="87"/>
+      <c r="D130" s="87"/>
+      <c r="E130" s="87"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="80" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="86" t="s">
+        <v>250</v>
+      </c>
+      <c r="C132" s="87"/>
+      <c r="D132" s="87"/>
+      <c r="E132" s="87"/>
+      <c r="G132" s="80" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="38" spans="2:8">
-      <c r="B38" s="87" t="s">
-        <v>139</v>
-      </c>
-      <c r="C38" s="88"/>
-      <c r="D38" s="88"/>
-      <c r="E38" s="88"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="81" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" s="84"/>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" s="85" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" s="98" t="s">
-        <v>142</v>
-      </c>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="89"/>
-      <c r="G41" s="81" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="98" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="81" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" s="98" t="s">
-        <v>146</v>
-      </c>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="89"/>
-      <c r="G43" s="81" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="89"/>
-      <c r="G44" s="90" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" s="98" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="89"/>
-      <c r="G45" s="81" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" s="98" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="81" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" s="98" t="s">
-        <v>600</v>
-      </c>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="89"/>
-      <c r="H47" s="81" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" s="98" t="s">
-        <v>165</v>
-      </c>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="89"/>
-      <c r="G48" s="81" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="98" t="s">
-        <v>168</v>
-      </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="89"/>
-      <c r="G49" s="81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="83"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="G51" s="81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="98" t="s">
-        <v>156</v>
-      </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="88"/>
-      <c r="E52" s="88"/>
-      <c r="G52" s="81" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="C53" s="88"/>
-      <c r="D53" s="88"/>
-      <c r="E53" s="88"/>
-      <c r="G53" s="81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="83"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="88"/>
-      <c r="E55" s="88"/>
-      <c r="G55" s="81" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="87" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="88"/>
-      <c r="D57" s="88"/>
-      <c r="E57" s="88"/>
-      <c r="G57" s="81" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="87" t="s">
-        <v>167</v>
-      </c>
-      <c r="C59" s="88"/>
-      <c r="D59" s="88"/>
-      <c r="E59" s="88"/>
-      <c r="G59" s="81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="80" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="82" t="s">
-        <v>171</v>
-      </c>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="G62" s="81" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="82" t="s">
-        <v>173</v>
-      </c>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="G63" s="81" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="G64" s="81" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
-      <c r="G65" s="81" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="82" t="s">
-        <v>179</v>
-      </c>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
-      <c r="G67" s="81" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
-      <c r="G68" s="81" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="82" t="s">
-        <v>185</v>
-      </c>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
-      <c r="G69" s="81" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="83"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="82" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
-      <c r="G71" s="81" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
-      <c r="G73" s="81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="80" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="98" t="s">
+    <row r="134" spans="2:7">
+      <c r="B134" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" s="87"/>
+      <c r="D134" s="87"/>
+      <c r="E134" s="87"/>
+      <c r="G134" s="80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="97" t="s">
+        <v>253</v>
+      </c>
+      <c r="C135" s="87"/>
+      <c r="D135" s="87"/>
+      <c r="E135" s="87"/>
+      <c r="G135" s="80" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="79" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="86" t="s">
+        <v>256</v>
+      </c>
+      <c r="C138" s="87"/>
+      <c r="D138" s="87"/>
+      <c r="E138" s="87"/>
+      <c r="G138" s="80" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="85" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="101" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="85" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="101" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="102" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="101" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="103" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="103" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="101" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="85" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="101" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="101" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="103" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="101" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="101" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="101" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="101" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="102" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="99"/>
-      <c r="D76" s="99"/>
-      <c r="E76" s="99"/>
-      <c r="G76" s="81" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="83"/>
-      <c r="C77" s="100"/>
-      <c r="D77" s="100"/>
-      <c r="E77" s="100"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="98" t="s">
-        <v>601</v>
-      </c>
-      <c r="C78" s="99"/>
-      <c r="D78" s="99"/>
-      <c r="E78" s="99"/>
-      <c r="G78" s="83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="82" t="s">
-        <v>568</v>
-      </c>
-      <c r="C79" s="73"/>
-      <c r="D79" s="73"/>
-      <c r="E79" s="73"/>
-      <c r="G79" s="81" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7">
-      <c r="B80" s="82" t="s">
-        <v>569</v>
-      </c>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="G80" s="81" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7">
-      <c r="B81" s="82" t="s">
-        <v>570</v>
-      </c>
-      <c r="C81" s="73"/>
-      <c r="D81" s="73"/>
-      <c r="E81" s="73"/>
-      <c r="G81" s="81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7">
-      <c r="B82" s="82" t="s">
-        <v>571</v>
-      </c>
-      <c r="C82" s="73"/>
-      <c r="D82" s="73"/>
-      <c r="E82" s="73"/>
-      <c r="G82" s="81" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7">
-      <c r="B83" s="82" t="s">
-        <v>572</v>
-      </c>
-      <c r="C83" s="73"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="73"/>
-      <c r="G83" s="81" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7">
-      <c r="B84" s="82" t="s">
-        <v>573</v>
-      </c>
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="G84" s="81" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="82" t="s">
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="103" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="104"/>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="103" t="s">
         <v>574</v>
       </c>
-      <c r="C85" s="73"/>
-      <c r="D85" s="73"/>
-      <c r="E85" s="73"/>
-      <c r="G85" s="81" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="82" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="73"/>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="G87" s="81" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="83"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="82" t="s">
-        <v>199</v>
-      </c>
-      <c r="C89" s="73"/>
-      <c r="D89" s="73"/>
-      <c r="E89" s="73"/>
-      <c r="G89" s="81" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="82" t="s">
-        <v>201</v>
-      </c>
-      <c r="C91" s="73"/>
-      <c r="D91" s="73"/>
-      <c r="E91" s="73"/>
-      <c r="G91" s="81" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="97"/>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="96" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="73"/>
-      <c r="D93" s="73"/>
-      <c r="E93" s="73"/>
-      <c r="G93" s="81" t="s">
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="104"/>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="103" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="103" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="96" t="s">
-        <v>204</v>
-      </c>
-      <c r="C94" s="73"/>
-      <c r="D94" s="73"/>
-      <c r="E94" s="73"/>
-      <c r="G94" s="81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="96" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="73"/>
-      <c r="D95" s="73"/>
-      <c r="E95" s="73"/>
-      <c r="G95" s="81" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="96" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="73"/>
-      <c r="D96" s="73"/>
-      <c r="E96" s="73"/>
-      <c r="G96" s="81" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="96" t="s">
-        <v>605</v>
-      </c>
-      <c r="C97" s="73"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="73"/>
-      <c r="G97" s="81" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="83"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="96" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" s="73"/>
-      <c r="D99" s="73"/>
-      <c r="E99" s="73"/>
-      <c r="G99" s="81" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="96" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="73"/>
-      <c r="D100" s="73"/>
-      <c r="E100" s="73"/>
-      <c r="G100" s="81" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="82" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="73"/>
-      <c r="D101" s="73"/>
-      <c r="E101" s="73"/>
-      <c r="G101" s="81" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="82" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" s="73"/>
-      <c r="D103" s="73"/>
-      <c r="E103" s="73"/>
-      <c r="G103" s="81" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="C105" s="73"/>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="G105" s="81" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="83"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="85" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="96" t="s">
-        <v>603</v>
-      </c>
-      <c r="C108" s="73"/>
-      <c r="D108" s="73"/>
-      <c r="E108" s="73"/>
-      <c r="G108" s="81" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="82" t="s">
-        <v>224</v>
-      </c>
-      <c r="C109" s="73"/>
-      <c r="D109" s="73"/>
-      <c r="E109" s="73"/>
-      <c r="G109" s="81" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="C110" s="73"/>
-      <c r="D110" s="73"/>
-      <c r="E110" s="73"/>
-      <c r="G110" s="81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="87" t="s">
-        <v>226</v>
-      </c>
-      <c r="C111" s="88"/>
-      <c r="D111" s="88"/>
-      <c r="E111" s="88"/>
-      <c r="G111" s="90" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7">
-      <c r="B113" s="82" t="s">
-        <v>273</v>
-      </c>
-      <c r="C113" s="73"/>
-      <c r="D113" s="73"/>
-      <c r="E113" s="73"/>
-      <c r="G113" s="81" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7">
-      <c r="B114" s="83"/>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" s="96" t="s">
-        <v>269</v>
-      </c>
-      <c r="C115" s="73"/>
-      <c r="D115" s="73"/>
-      <c r="E115" s="73"/>
-      <c r="G115" s="81" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="97"/>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="96" t="s">
-        <v>228</v>
-      </c>
-      <c r="C117" s="73"/>
-      <c r="D117" s="73"/>
-      <c r="E117" s="73"/>
-      <c r="G117" s="81" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="82" t="s">
-        <v>230</v>
-      </c>
-      <c r="C118" s="73"/>
-      <c r="D118" s="73"/>
-      <c r="E118" s="73"/>
-      <c r="G118" s="81" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" s="82" t="s">
-        <v>232</v>
-      </c>
-      <c r="C119" s="73"/>
-      <c r="D119" s="73"/>
-      <c r="E119" s="73"/>
-      <c r="G119" s="81" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="83"/>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="B121" s="85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7">
-      <c r="B122" s="87" t="s">
-        <v>235</v>
-      </c>
-      <c r="C122" s="88"/>
-      <c r="D122" s="88"/>
-      <c r="E122" s="88"/>
-      <c r="G122" s="81" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C123" s="88"/>
-      <c r="D123" s="88"/>
-      <c r="E123" s="88"/>
-      <c r="G123" s="81" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="87" t="s">
-        <v>239</v>
-      </c>
-      <c r="C124" s="88"/>
-      <c r="D124" s="88"/>
-      <c r="E124" s="88"/>
-      <c r="G124" s="81" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" s="87" t="s">
-        <v>241</v>
-      </c>
-      <c r="C126" s="88"/>
-      <c r="D126" s="88"/>
-      <c r="E126" s="88"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="81" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7">
-      <c r="B127" s="96" t="s">
-        <v>243</v>
-      </c>
-      <c r="C127" s="73"/>
-      <c r="D127" s="73"/>
-      <c r="E127" s="73"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="81" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="C128" s="88"/>
-      <c r="D128" s="88"/>
-      <c r="E128" s="88"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="81" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="B129" s="87" t="s">
-        <v>247</v>
-      </c>
-      <c r="C129" s="88"/>
-      <c r="D129" s="88"/>
-      <c r="E129" s="88"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="81" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="130" spans="2:7">
-      <c r="B130" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="C130" s="88"/>
-      <c r="D130" s="88"/>
-      <c r="E130" s="88"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="81" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="132" spans="2:7">
-      <c r="B132" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="C132" s="88"/>
-      <c r="D132" s="88"/>
-      <c r="E132" s="88"/>
-      <c r="G132" s="81" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="134" spans="2:7">
-      <c r="B134" s="98" t="s">
-        <v>252</v>
-      </c>
-      <c r="C134" s="88"/>
-      <c r="D134" s="88"/>
-      <c r="E134" s="88"/>
-      <c r="G134" s="81" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="135" spans="2:7">
-      <c r="B135" s="98" t="s">
-        <v>253</v>
-      </c>
-      <c r="C135" s="88"/>
-      <c r="D135" s="88"/>
-      <c r="E135" s="88"/>
-      <c r="G135" s="81" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="B137" s="80" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" s="87" t="s">
-        <v>256</v>
-      </c>
-      <c r="C138" s="88"/>
-      <c r="D138" s="88"/>
-      <c r="E138" s="88"/>
-      <c r="G138" s="81" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7">
-      <c r="B140" s="86" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="141" spans="2:7">
-      <c r="B141" s="102" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="142" spans="2:7">
-      <c r="B142" s="86" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143" spans="2:7">
-      <c r="B143" s="102" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="144" spans="2:7">
-      <c r="B144" s="103" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="102" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="104" t="s">
+    <row r="171" spans="2:2">
+      <c r="B171" s="104"/>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="103" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="104"/>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="105" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="104" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" s="102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="101" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="103" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="103" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="102" t="s">
+    <row r="178" spans="2:2">
+      <c r="B178" s="103" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="103" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="180" spans="2:2">
+      <c r="B180" s="102" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="181" spans="2:2">
+      <c r="B181" s="101" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="2:2">
+      <c r="B182" s="101" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="86" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="102" t="s">
+    <row r="183" spans="2:2">
+      <c r="B183" s="101" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="86" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="102" t="s">
+    <row r="184" spans="2:2">
+      <c r="B184" s="102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2">
+      <c r="B185" s="101" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="104" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="86" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="102" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="102" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="102" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="102" t="s">
+    <row r="186" spans="2:2">
+      <c r="B186" s="101" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="102" t="s">
+    <row r="187" spans="2:2">
+      <c r="B187" s="101" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="103" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="104" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="104" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="105"/>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="104" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="105"/>
-    </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="104" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="104" t="s">
+    <row r="188" spans="2:2">
+      <c r="B188" s="102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="189" spans="2:2">
+      <c r="B189" s="101" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="190" spans="2:2">
+      <c r="B190" s="85" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="191" spans="2:2">
+      <c r="B191" s="101" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="192" spans="2:2">
+      <c r="B192" s="103" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="105"/>
-    </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="104" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="105"/>
-    </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="106" t="s">
+    <row r="193" spans="2:2">
+      <c r="B193" s="103" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="103" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="102" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="104" t="s">
+    <row r="194" spans="2:2">
+      <c r="B194" s="103" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="104" t="s">
+    <row r="195" spans="2:2">
+      <c r="B195" s="85" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2">
+      <c r="B196" s="85" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2">
+      <c r="B197" s="101" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2">
+      <c r="B198" s="101" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2">
+      <c r="B199" s="102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2">
+      <c r="B200" s="101" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2">
+      <c r="B201" s="102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2">
+      <c r="B202" s="101" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="203" spans="2:2">
+      <c r="B203" s="101" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="104" t="s">
+    <row r="204" spans="2:2">
+      <c r="B204" s="102" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" s="101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" s="101" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" s="102" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" s="101" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2">
+      <c r="B209" s="102" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2">
+      <c r="B210" s="101" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2">
+      <c r="B211" s="101" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2">
+      <c r="B212" s="85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="213" spans="2:2">
+      <c r="B213" s="101" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="214" spans="2:2">
+      <c r="B214" s="102" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="215" spans="2:2">
+      <c r="B215" s="101" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" s="101" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" s="101" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" s="101" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" s="101" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="2:2">
+      <c r="B220" s="102" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2">
+      <c r="B221" s="101" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2">
+      <c r="B222" s="101" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2">
+      <c r="B223" s="101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2">
+      <c r="B224" s="101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2">
+      <c r="B225" s="85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" s="101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" s="101" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="101" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2">
+      <c r="B230" s="102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2">
+      <c r="B231" s="101" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2">
+      <c r="B232" s="101" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2">
+      <c r="B233" s="101" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2">
+      <c r="B234" s="106" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="180" spans="2:2">
-      <c r="B180" s="103" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="181" spans="2:2">
-      <c r="B181" s="102" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="182" spans="2:2">
-      <c r="B182" s="102" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="183" spans="2:2">
-      <c r="B183" s="102" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="184" spans="2:2">
-      <c r="B184" s="103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="185" spans="2:2">
-      <c r="B185" s="102" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="186" spans="2:2">
-      <c r="B186" s="102" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="187" spans="2:2">
-      <c r="B187" s="102" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="188" spans="2:2">
-      <c r="B188" s="103" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="189" spans="2:2">
-      <c r="B189" s="102" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="190" spans="2:2">
-      <c r="B190" s="86" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="191" spans="2:2">
-      <c r="B191" s="102" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="192" spans="2:2">
-      <c r="B192" s="104" t="s">
+    <row r="235" spans="2:2">
+      <c r="B235" s="106" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="193" spans="2:2">
-      <c r="B193" s="104" t="s">
+    <row r="236" spans="2:2">
+      <c r="B236" s="101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2">
+      <c r="B237" s="102" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2">
+      <c r="B238" s="101" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2">
+      <c r="B239" s="106" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="194" spans="2:2">
-      <c r="B194" s="104" t="s">
+    <row r="240" spans="2:2">
+      <c r="B240" s="106" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="195" spans="2:2">
-      <c r="B195" s="86" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="196" spans="2:2">
-      <c r="B196" s="86" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="197" spans="2:2">
-      <c r="B197" s="102" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="198" spans="2:2">
-      <c r="B198" s="102" t="s">
+    <row r="241" spans="2:2">
+      <c r="B241" s="101" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="199" spans="2:2">
-      <c r="B199" s="103" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="200" spans="2:2">
-      <c r="B200" s="102" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="201" spans="2:2">
-      <c r="B201" s="103" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="202" spans="2:2">
-      <c r="B202" s="102" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="203" spans="2:2">
-      <c r="B203" s="102" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="204" spans="2:2">
-      <c r="B204" s="103" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" s="102" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" s="102" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" s="103" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2">
-      <c r="B208" s="102" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="209" spans="2:2">
-      <c r="B209" s="103" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="210" spans="2:2">
-      <c r="B210" s="102" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="211" spans="2:2">
-      <c r="B211" s="102" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="212" spans="2:2">
-      <c r="B212" s="86" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="213" spans="2:2">
-      <c r="B213" s="102" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="214" spans="2:2">
-      <c r="B214" s="103" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" s="102" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2">
-      <c r="B216" s="102" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="217" spans="2:2">
-      <c r="B217" s="102" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="218" spans="2:2">
-      <c r="B218" s="102" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="219" spans="2:2">
-      <c r="B219" s="102" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="220" spans="2:2">
-      <c r="B220" s="103" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="102" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="102" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="102" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="225" spans="2:2">
-      <c r="B225" s="86" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" s="102" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="103" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" s="102" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="102" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="230" spans="2:2">
-      <c r="B230" s="103" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2">
-      <c r="B231" s="102" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="232" spans="2:2">
-      <c r="B232" s="102" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="233" spans="2:2">
-      <c r="B233" s="102" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="234" spans="2:2">
-      <c r="B234" s="107" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="235" spans="2:2">
-      <c r="B235" s="107" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2">
-      <c r="B236" s="102" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="237" spans="2:2">
-      <c r="B237" s="103" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="238" spans="2:2">
-      <c r="B238" s="102" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="239" spans="2:2">
-      <c r="B239" s="107" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="240" spans="2:2">
-      <c r="B240" s="107" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2">
-      <c r="B241" s="102" t="s">
-        <v>563</v>
-      </c>
-    </row>
     <row r="242" spans="2:2">
-      <c r="B242" s="102" t="s">
+      <c r="B242" s="101" t="s">
         <v>100</v>
       </c>
     </row>
@@ -12208,63 +13402,63 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="21.75">
-      <c r="A1" s="74" t="s">
-        <v>498</v>
+      <c r="A1" s="73" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="12" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -12278,7 +13472,7 @@
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="12" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -12292,7 +13486,7 @@
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="12" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -12306,27 +13500,27 @@
     </row>
     <row r="41" spans="2:11">
       <c r="B41" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="12" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -12336,7 +13530,7 @@
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="12" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -12346,132 +13540,132 @@
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.25">
-      <c r="A50" s="75" t="s">
-        <v>519</v>
+      <c r="A50" s="74" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="B51" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="B52" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="B53" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="B54" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="B55" s="76" t="s">
-        <v>542</v>
+      <c r="B55" s="75" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="81" spans="2:2">
       <c r="B81" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="82" spans="2:2">
       <c r="B82" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="83" spans="2:2">
       <c r="B83" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="2:2">
       <c r="B85" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="87" spans="2:2">
       <c r="B87" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="92" spans="2:2">
       <c r="B92" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="93" spans="2:2">
       <c r="B93" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="2:2">
       <c r="B95" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="96" spans="2:2">
       <c r="B96" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -12483,453 +13677,94 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T87"/>
+  <dimension ref="A4:B20"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="20.25">
-      <c r="A1" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" s="36" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="B4" t="s">
-        <v>381</v>
+    <row r="4" spans="1:2" ht="20.25">
+      <c r="A4" s="111" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>376</v>
+      <c r="B5" s="107" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="36" t="s">
-        <v>377</v>
-      </c>
+      <c r="B6" s="108"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>378</v>
+      <c r="B7" s="109" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="20.25">
-      <c r="A43" s="37" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="15.75">
-      <c r="B44" s="38" t="s">
-        <v>390</v>
-      </c>
-      <c r="L44" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="B45" s="39" t="s">
-        <v>391</v>
-      </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="L45" s="39" t="s">
-        <v>482</v>
-      </c>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="B46" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="L46" s="39" t="s">
-        <v>392</v>
-      </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="B47" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="L47" s="39" t="s">
-        <v>393</v>
-      </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
-    </row>
-    <row r="48" spans="1:20">
-      <c r="B48" s="39" t="s">
-        <v>394</v>
-      </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="L48" s="39" t="s">
-        <v>483</v>
-      </c>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
-    </row>
-    <row r="49" spans="2:20">
-      <c r="B49" s="39" t="s">
-        <v>395</v>
-      </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="L49" s="39" t="s">
-        <v>484</v>
-      </c>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
-    </row>
-    <row r="50" spans="2:20">
-      <c r="B50" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="L50" s="39" t="s">
-        <v>396</v>
-      </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
-    </row>
-    <row r="51" spans="2:20">
-      <c r="B51" s="39" t="s">
-        <v>397</v>
-      </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="L51" s="39" t="s">
-        <v>485</v>
-      </c>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
-    </row>
-    <row r="52" spans="2:20">
-      <c r="B52" s="39" t="s">
-        <v>398</v>
-      </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="L52" s="39" t="s">
-        <v>486</v>
-      </c>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
-    </row>
-    <row r="53" spans="2:20">
-      <c r="B53" s="39" t="s">
-        <v>399</v>
-      </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="L53" s="39" t="s">
-        <v>487</v>
-      </c>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-    </row>
-    <row r="55" spans="2:20" ht="15.75">
-      <c r="B55" s="38" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="56" spans="2:20">
-      <c r="C56" t="s">
-        <v>401</v>
-      </c>
-      <c r="D56" t="s">
-        <v>402</v>
-      </c>
-      <c r="E56" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="58" spans="2:20" ht="15.75">
-      <c r="B58" s="38" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="59" spans="2:20">
-      <c r="B59" s="42" t="s">
-        <v>382</v>
-      </c>
-      <c r="C59" s="42"/>
-    </row>
-    <row r="60" spans="2:20">
-      <c r="B60" s="42" t="s">
-        <v>383</v>
-      </c>
-      <c r="C60" s="42"/>
-    </row>
-    <row r="61" spans="2:20">
-      <c r="B61" s="42" t="s">
-        <v>384</v>
-      </c>
-      <c r="C61" s="42"/>
-    </row>
-    <row r="62" spans="2:20">
-      <c r="B62" s="42" t="s">
-        <v>385</v>
-      </c>
-      <c r="C62" s="42"/>
-    </row>
-    <row r="63" spans="2:20">
-      <c r="B63" s="43" t="s">
-        <v>405</v>
-      </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
-    </row>
-    <row r="64" spans="2:20">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43" t="s">
-        <v>406</v>
-      </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-    </row>
-    <row r="65" spans="2:17">
-      <c r="B65" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-    </row>
-    <row r="66" spans="2:17">
-      <c r="B66" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
-    </row>
-    <row r="67" spans="2:17">
-      <c r="B67" s="44" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="80" spans="2:17" ht="15.75">
-      <c r="B80" s="38" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="81" spans="3:4">
-      <c r="C81" s="41" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="82" spans="3:4">
-      <c r="C82" s="41"/>
-      <c r="D82" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4">
-      <c r="C83" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4">
-      <c r="C85" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4">
-      <c r="C86" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4">
-      <c r="D87" t="s">
-        <v>490</v>
+      <c r="B8" s="109" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="109" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="B10" s="109" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="108"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="108"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="110" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" s="108"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" s="109" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="109" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="109" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="109" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="109" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="109" t="s">
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/50_重要/学习笔记_源代码管理工具_Git.xlsx
+++ b/50_重要/学习笔记_源代码管理工具_Git.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49AF4220-0F97-4407-B91C-A96100DFFC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,11 @@
     <sheet name="Github" sheetId="13" r:id="rId8"/>
     <sheet name="Gitee" sheetId="14" r:id="rId9"/>
     <sheet name="总结" sheetId="8" r:id="rId10"/>
-    <sheet name="参考" sheetId="7" r:id="rId11"/>
+    <sheet name="工程" sheetId="15" r:id="rId11"/>
+    <sheet name="参考" sheetId="7" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId12"/>
+    <externalReference r:id="rId13"/>
   </externalReferences>
   <definedNames>
     <definedName name="materiallist">'[1]Config File Definitions'!$B$92:$B$124</definedName>
@@ -31,18 +33,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="642">
   <si>
     <t>git config --global --unset https.proxy</t>
   </si>
@@ -5545,12 +5541,86 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>关于项目的GIT配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用git或tortoisegit等软件下载了项目代码后，会有一个.git的目录，其下有一个config的文件。这个就是跟git相关的配置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[core]</t>
+  </si>
+  <si>
+    <t>repositoryformatversion = 0</t>
+  </si>
+  <si>
+    <t>filemode = false</t>
+  </si>
+  <si>
+    <t>bare = false</t>
+  </si>
+  <si>
+    <t>logallrefupdates = true</t>
+  </si>
+  <si>
+    <t>symlinks = false</t>
+  </si>
+  <si>
+    <t>ignorecase = true</t>
+  </si>
+  <si>
+    <t>[submodule]</t>
+  </si>
+  <si>
+    <t>active = .</t>
+  </si>
+  <si>
+    <t>[remote "origin"]</t>
+  </si>
+  <si>
+    <t>url = git@gitee.com:breezee2000/StudyNotes.git</t>
+  </si>
+  <si>
+    <t>fetch = +refs/heads/*:refs/remotes/origin/*</t>
+  </si>
+  <si>
+    <t>puttykeyfile = E:\\70_Env\\10_Git\\putty_gen_pk.ppk</t>
+  </si>
+  <si>
+    <t>[branch "master"]</t>
+  </si>
+  <si>
+    <t>remote = origin</t>
+  </si>
+  <si>
+    <t>merge = refs/heads/master</t>
+  </si>
+  <si>
+    <t>[tgit]</t>
+  </si>
+  <si>
+    <t>commitshowpatch = false</t>
+  </si>
+  <si>
+    <t>例如：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个是SSH私有配置文件全路径，当修改了该文件路径后，需要修改该配置！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="93">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="94">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6184,13 +6254,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
@@ -6232,6 +6295,24 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -6278,7 +6359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -6301,6 +6382,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -6314,7 +6475,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6323,8 +6483,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6362,10 +6521,7 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6380,8 +6536,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6399,9 +6553,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6415,14 +6566,13 @@
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6463,9 +6613,6 @@
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -6502,12 +6649,10 @@
     <xf numFmtId="0" fontId="64" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -6562,10 +6707,22 @@
     <xf numFmtId="0" fontId="80" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="91" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="93" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6596,7 +6753,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -6632,7 +6789,7 @@
         <xdr:cNvPr id="9" name="Picture 8" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712175953826-1823970975.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C83732-6B9A-48BE-BF08-369F60582D16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C83732-6B9A-48BE-BF08-369F60582D16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6698,7 +6855,7 @@
         <xdr:cNvPr id="10" name="Picture 9" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712175933307-612851527.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DB1D8494-794F-41FA-8CD5-0CAF26A2F156}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1D8494-794F-41FA-8CD5-0CAF26A2F156}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6764,7 +6921,7 @@
         <xdr:cNvPr id="11" name="Picture 10" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180035366-1184901060.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F5304270-2D80-4D78-BFAC-D571C3550363}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5304270-2D80-4D78-BFAC-D571C3550363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6825,7 +6982,7 @@
         <xdr:cNvPr id="12" name="Picture 11" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180049128-2039869510.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E8219345-F629-4F67-9C87-73ECFB35B73B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8219345-F629-4F67-9C87-73ECFB35B73B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6886,7 +7043,7 @@
         <xdr:cNvPr id="13" name="Picture 12" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180057401-1012284803.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{624983FC-B9EA-482B-84BF-C2A1EEF4BE4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{624983FC-B9EA-482B-84BF-C2A1EEF4BE4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6947,7 +7104,7 @@
         <xdr:cNvPr id="14" name="Picture 13" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180108388-819691407.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6106561A-4EC4-4D9E-BD92-90F295FB76D7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6106561A-4EC4-4D9E-BD92-90F295FB76D7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7008,7 +7165,7 @@
         <xdr:cNvPr id="15" name="Picture 14" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180116498-1881608663.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2EA93CB4-487F-408F-BDB9-3B922666B6C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2EA93CB4-487F-408F-BDB9-3B922666B6C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7069,7 +7226,7 @@
         <xdr:cNvPr id="16" name="Picture 15" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180125974-2045021887.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{240F342A-01D8-43CD-A7F1-E70C283EF57D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240F342A-01D8-43CD-A7F1-E70C283EF57D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7130,7 +7287,7 @@
         <xdr:cNvPr id="17" name="Picture 16" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180134133-2004601709.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3DC3E41C-32F9-4DEA-B3B7-F611D94DC4AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC3E41C-32F9-4DEA-B3B7-F611D94DC4AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7191,7 +7348,7 @@
         <xdr:cNvPr id="18" name="Picture 17" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180141869-1792711662.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE074B46-3633-41FD-A8D5-E6AF72A9371A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE074B46-3633-41FD-A8D5-E6AF72A9371A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7252,7 +7409,7 @@
         <xdr:cNvPr id="19" name="Picture 18" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180148899-1950550909.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B3C4D746-8FDE-4AF7-AFD3-82EE4FEDCA81}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3C4D746-8FDE-4AF7-AFD3-82EE4FEDCA81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7313,7 +7470,7 @@
         <xdr:cNvPr id="20" name="Picture 19" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180158196-392831332.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D30D6D8B-994E-4231-8B5B-39DA2F6908F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D30D6D8B-994E-4231-8B5B-39DA2F6908F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7374,7 +7531,7 @@
         <xdr:cNvPr id="21" name="Picture 20" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180206449-51255860.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9A5D104D-F6F7-4CD9-A18E-7DCBC0BD10E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5D104D-F6F7-4CD9-A18E-7DCBC0BD10E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7435,7 +7592,7 @@
         <xdr:cNvPr id="22" name="Picture 21" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180233489-576328790.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F237D589-2F02-4FEA-BCD8-7FB15E2E9E46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F237D589-2F02-4FEA-BCD8-7FB15E2E9E46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7496,7 +7653,7 @@
         <xdr:cNvPr id="23" name="Picture 22" descr="https://images2018.cnblogs.com/blog/1090314/201807/1090314-20180712180242480-1780891543.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8F5367DF-E43B-4C64-AE6E-19D21813ED6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5367DF-E43B-4C64-AE6E-19D21813ED6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7557,7 +7714,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://img-blog.csdn.net/20180807142130602?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6A5E01B0-8F31-4A15-8D4A-BDDA8B729468}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A5E01B0-8F31-4A15-8D4A-BDDA8B729468}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7618,7 +7775,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://img-blog.csdn.net/20180807142252868?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40C98C32-16A7-4B1B-B3BD-26E49C99BF39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C98C32-16A7-4B1B-B3BD-26E49C99BF39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7679,7 +7836,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="https://img-blog.csdn.net/20180807151249468?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D3ADAFFE-60E5-4220-91BE-709BDFB87F9B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3ADAFFE-60E5-4220-91BE-709BDFB87F9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7740,7 +7897,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://img-blog.csdn.net/20180807152335215?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{852C5F01-9B39-4C9B-992A-D2EF059FE9A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{852C5F01-9B39-4C9B-992A-D2EF059FE9A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7801,7 +7958,7 @@
         <xdr:cNvPr id="6" name="Picture 5" descr="https://img-blog.csdn.net/20180807154338581?watermark/2/text/aHR0cHM6Ly9ibG9nLmNzZG4ubmV0L3FxXzMyNzg2ODcz/font/5a6L5L2T/fontsize/400/fill/I0JBQkFCMA==/dissolve/70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{989EEDFA-6D68-4094-AB39-6DF3E6198221}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{989EEDFA-6D68-4094-AB39-6DF3E6198221}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7862,7 +8019,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8EA89892-31BB-48C2-8308-8C4EC68645D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EA89892-31BB-48C2-8308-8C4EC68645D0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7923,7 +8080,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDA2749B-B73D-4859-A75B-623FA34A32FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDA2749B-B73D-4859-A75B-623FA34A32FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7989,7 +8146,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C432C0B8-3586-43DF-9148-97A997F51C38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C432C0B8-3586-43DF-9148-97A997F51C38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8060,7 +8217,7 @@
         <xdr:cNvPr id="2" name="Picture 1" descr="https://images2018.cnblogs.com/blog/1069802/201807/1069802-20180724125621172-1859812627.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6346CAA3-60CE-4609-A397-CAF8667DFBCF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6346CAA3-60CE-4609-A397-CAF8667DFBCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8121,7 +8278,7 @@
         <xdr:cNvPr id="3" name="Picture 2" descr="https://images2018.cnblogs.com/blog/1069802/201807/1069802-20180724125214904-2145244694.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1399A54A-CE2F-47CC-9450-8A5DC66C59BD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1399A54A-CE2F-47CC-9450-8A5DC66C59BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8182,7 +8339,7 @@
         <xdr:cNvPr id="4" name="Picture 3" descr="https://images2018.cnblogs.com/blog/1069802/201807/1069802-20180724125252505-395585708.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2D0536BD-A5F9-4D50-9D7C-281C744B2060}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0536BD-A5F9-4D50-9D7C-281C744B2060}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8243,7 +8400,7 @@
         <xdr:cNvPr id="5" name="Picture 4" descr="https://images2018.cnblogs.com/blog/1069802/201807/1069802-20180724114521769-1365777015.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E25C05F0-09F1-41B4-B33A-890C630E3832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25C05F0-09F1-41B4-B33A-890C630E3832}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8309,7 +8466,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{01E368D3-0F57-4C53-A991-A19E7DE8D302}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01E368D3-0F57-4C53-A991-A19E7DE8D302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8380,7 +8537,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9FA2B26B-71B5-43AD-9382-C9F80203D5FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FA2B26B-71B5-43AD-9382-C9F80203D5FB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8446,7 +8603,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DA03CEBF-07C3-4228-95AF-FBE6C952776B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA03CEBF-07C3-4228-95AF-FBE6C952776B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8512,7 +8669,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{975B8181-55CD-43A0-AD89-E782A2F538F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{975B8181-55CD-43A0-AD89-E782A2F538F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8578,7 +8735,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43CB8324-E195-43B3-8786-C87982294659}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43CB8324-E195-43B3-8786-C87982294659}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8639,7 +8796,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7D5AE7E6-9DF7-46B1-9D9D-57CAE7926670}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5AE7E6-9DF7-46B1-9D9D-57CAE7926670}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8700,7 +8857,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8003913E-652C-4396-91ED-32CF8855E472}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8003913E-652C-4396-91ED-32CF8855E472}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8766,7 +8923,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0F392293-8D0A-4E13-9FC5-354039A69D59}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F392293-8D0A-4E13-9FC5-354039A69D59}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8835,7 +8992,7 @@
         <xdr:cNvPr id="3" name="Picture 1" descr="image001">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{91CBAFE4-9FEC-4447-956A-0FA7B1E14C92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91CBAFE4-9FEC-4447-956A-0FA7B1E14C92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8894,8 +9051,67 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>315708</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>153265</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17B3BE46-33A7-9698-DAC3-D26B93258A87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="4381500"/>
+          <a:ext cx="9907383" cy="6201640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="190500" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="70000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Project ChangeLog"/>
@@ -9278,14 +9494,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -9295,22 +9511,22 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:15" ht="39.75">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="50" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="37" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9330,324 +9546,324 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="B8" s="49"/>
+      <c r="B8" s="43"/>
     </row>
     <row r="9" spans="1:15" ht="15">
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="52" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="53" t="s">
         <v>449</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="61"/>
-      <c r="J10" s="61"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="53" t="s">
         <v>450</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="53" t="s">
         <v>451</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="61"/>
-      <c r="J12" s="61"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="53" t="s">
         <v>452</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="61"/>
-      <c r="J14" s="61"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="53" t="s">
         <v>453</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="61"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="53" t="s">
         <v>454</v>
       </c>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="53" t="s">
         <v>455</v>
       </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
     </row>
     <row r="19" spans="2:15" ht="15">
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="55" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="20" spans="2:15">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="2:15">
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:15">
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="8" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="33" spans="2:2" ht="15">
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="55" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:2" ht="15">
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="55" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="8" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="54"/>
+      <c r="B45" s="47"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="55"/>
+      <c r="B46" s="48"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="56"/>
+      <c r="B47" s="49"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="56"/>
+      <c r="B48" s="49"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="56"/>
+      <c r="B49" s="49"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="56"/>
+      <c r="B50" s="49"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="55"/>
+      <c r="B51" s="48"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="56"/>
+      <c r="B52" s="49"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="56"/>
+      <c r="B53" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9657,22 +9873,22 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:T87"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A61" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="31" t="s">
         <v>375</v>
       </c>
     </row>
@@ -9692,7 +9908,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="31" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9707,12 +9923,12 @@
       </c>
     </row>
     <row r="43" spans="1:20" ht="20.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="32" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="15.75">
-      <c r="B44" s="38" t="s">
+      <c r="B44" s="33" t="s">
         <v>390</v>
       </c>
       <c r="L44" t="s">
@@ -9720,223 +9936,223 @@
       </c>
     </row>
     <row r="45" spans="1:20">
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="34" t="s">
         <v>391</v>
       </c>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="40"/>
-      <c r="J45" s="40"/>
-      <c r="L45" s="39" t="s">
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="L45" s="34" t="s">
         <v>477</v>
       </c>
-      <c r="M45" s="40"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="40"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
     </row>
     <row r="46" spans="1:20">
-      <c r="B46" s="39" t="s">
+      <c r="B46" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="L46" s="39" t="s">
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="L46" s="34" t="s">
         <v>392</v>
       </c>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
     </row>
     <row r="47" spans="1:20">
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="40"/>
-      <c r="J47" s="40"/>
-      <c r="L47" s="39" t="s">
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="L47" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="M47" s="40"/>
-      <c r="N47" s="40"/>
-      <c r="O47" s="40"/>
-      <c r="P47" s="40"/>
-      <c r="Q47" s="40"/>
-      <c r="R47" s="40"/>
-      <c r="S47" s="40"/>
-      <c r="T47" s="40"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
     </row>
     <row r="48" spans="1:20">
-      <c r="B48" s="39" t="s">
+      <c r="B48" s="34" t="s">
         <v>394</v>
       </c>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="L48" s="39" t="s">
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="L48" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="M48" s="40"/>
-      <c r="N48" s="40"/>
-      <c r="O48" s="40"/>
-      <c r="P48" s="40"/>
-      <c r="Q48" s="40"/>
-      <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
-      <c r="T48" s="40"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
     </row>
     <row r="49" spans="2:20">
-      <c r="B49" s="39" t="s">
+      <c r="B49" s="34" t="s">
         <v>395</v>
       </c>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-      <c r="J49" s="40"/>
-      <c r="L49" s="39" t="s">
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="L49" s="34" t="s">
         <v>479</v>
       </c>
-      <c r="M49" s="40"/>
-      <c r="N49" s="40"/>
-      <c r="O49" s="40"/>
-      <c r="P49" s="40"/>
-      <c r="Q49" s="40"/>
-      <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
-      <c r="T49" s="40"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
     </row>
     <row r="50" spans="2:20">
-      <c r="B50" s="39" t="s">
+      <c r="B50" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="L50" s="39" t="s">
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="L50" s="34" t="s">
         <v>396</v>
       </c>
-      <c r="M50" s="40"/>
-      <c r="N50" s="40"/>
-      <c r="O50" s="40"/>
-      <c r="P50" s="40"/>
-      <c r="Q50" s="40"/>
-      <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
-      <c r="T50" s="40"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
     </row>
     <row r="51" spans="2:20">
-      <c r="B51" s="39" t="s">
+      <c r="B51" s="34" t="s">
         <v>397</v>
       </c>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="L51" s="39" t="s">
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="L51" s="34" t="s">
         <v>480</v>
       </c>
-      <c r="M51" s="40"/>
-      <c r="N51" s="40"/>
-      <c r="O51" s="40"/>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
-      <c r="T51" s="40"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
+      <c r="P51" s="35"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
     </row>
     <row r="52" spans="2:20">
-      <c r="B52" s="39" t="s">
+      <c r="B52" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-      <c r="I52" s="40"/>
-      <c r="J52" s="40"/>
-      <c r="L52" s="39" t="s">
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="L52" s="34" t="s">
         <v>481</v>
       </c>
-      <c r="M52" s="40"/>
-      <c r="N52" s="40"/>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="40"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
+      <c r="P52" s="35"/>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
     </row>
     <row r="53" spans="2:20">
-      <c r="B53" s="39" t="s">
+      <c r="B53" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-      <c r="I53" s="40"/>
-      <c r="J53" s="40"/>
-      <c r="L53" s="39" t="s">
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="L53" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="M53" s="40"/>
-      <c r="N53" s="40"/>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
+      <c r="P53" s="35"/>
+      <c r="Q53" s="35"/>
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
     </row>
     <row r="55" spans="2:20" ht="15.75">
-      <c r="B55" s="38" t="s">
+      <c r="B55" s="33" t="s">
         <v>400</v>
       </c>
     </row>
@@ -9952,131 +10168,131 @@
       </c>
     </row>
     <row r="58" spans="2:20" ht="15.75">
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="33" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="59" spans="2:20">
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="C59" s="42"/>
+      <c r="C59" s="37"/>
     </row>
     <row r="60" spans="2:20">
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="C60" s="42"/>
+      <c r="C60" s="37"/>
     </row>
     <row r="61" spans="2:20">
-      <c r="B61" s="42" t="s">
+      <c r="B61" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="C61" s="42"/>
+      <c r="C61" s="37"/>
     </row>
     <row r="62" spans="2:20">
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="C62" s="42"/>
+      <c r="C62" s="37"/>
     </row>
     <row r="63" spans="2:20">
-      <c r="B63" s="43" t="s">
+      <c r="B63" s="38" t="s">
         <v>405</v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
-      <c r="P63" s="35"/>
-      <c r="Q63" s="35"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
     </row>
     <row r="64" spans="2:20">
-      <c r="B64" s="43"/>
-      <c r="C64" s="43" t="s">
+      <c r="B64" s="38"/>
+      <c r="C64" s="38" t="s">
         <v>406</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="30"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="30"/>
     </row>
     <row r="65" spans="2:17">
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="38" t="s">
         <v>386</v>
       </c>
-      <c r="C65" s="43"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="30"/>
+      <c r="Q65" s="30"/>
     </row>
     <row r="66" spans="2:17">
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="38" t="s">
         <v>387</v>
       </c>
-      <c r="C66" s="43"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
-      <c r="P66" s="35"/>
-      <c r="Q66" s="35"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="30"/>
+      <c r="P66" s="30"/>
+      <c r="Q66" s="30"/>
     </row>
     <row r="67" spans="2:17">
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="37" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="80" spans="2:17" ht="15.75">
-      <c r="B80" s="38" t="s">
+      <c r="B80" s="33" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="81" spans="3:4">
-      <c r="C81" s="41" t="s">
+      <c r="C81" s="36" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="82" spans="3:4">
-      <c r="C82" s="41"/>
+      <c r="C82" s="36"/>
       <c r="D82" t="s">
         <v>488</v>
       </c>
@@ -10110,7 +10326,236 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E636474-74C1-4BEC-9D93-4A65B109FCCA}">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
+  <dimension ref="A1:O23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" ht="23.25">
+      <c r="A1" s="22" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="B2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="B3" s="100" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="B4" s="102" t="s">
+        <v>621</v>
+      </c>
+      <c r="C4" s="103"/>
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="104"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="B5" s="105"/>
+      <c r="C5" s="106" t="s">
+        <v>622</v>
+      </c>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="107"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="B6" s="105"/>
+      <c r="C6" s="106" t="s">
+        <v>623</v>
+      </c>
+      <c r="D6" s="106"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="107"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="B7" s="105"/>
+      <c r="C7" s="106" t="s">
+        <v>624</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="107"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="B8" s="105"/>
+      <c r="C8" s="106" t="s">
+        <v>625</v>
+      </c>
+      <c r="D8" s="106"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="107"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="B9" s="105"/>
+      <c r="C9" s="106" t="s">
+        <v>626</v>
+      </c>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="107"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="B10" s="105"/>
+      <c r="C10" s="106" t="s">
+        <v>627</v>
+      </c>
+      <c r="D10" s="106"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="107"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="B11" s="105" t="s">
+        <v>628</v>
+      </c>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="B12" s="105"/>
+      <c r="C12" s="106" t="s">
+        <v>629</v>
+      </c>
+      <c r="D12" s="106"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="106"/>
+      <c r="G12" s="107"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13" s="105" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" s="106"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="107"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="B14" s="105"/>
+      <c r="C14" s="106" t="s">
+        <v>631</v>
+      </c>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="107"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="B15" s="105"/>
+      <c r="C15" s="106" t="s">
+        <v>632</v>
+      </c>
+      <c r="D15" s="106"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="107"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="B16" s="105"/>
+      <c r="C16" s="111" t="s">
+        <v>633</v>
+      </c>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="112"/>
+      <c r="I16" s="30" t="s">
+        <v>640</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="105" t="s">
+        <v>634</v>
+      </c>
+      <c r="C17" s="106"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="107"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="105"/>
+      <c r="C18" s="106" t="s">
+        <v>635</v>
+      </c>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="105"/>
+      <c r="C19" s="106" t="s">
+        <v>636</v>
+      </c>
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="105" t="s">
+        <v>637</v>
+      </c>
+      <c r="C20" s="106"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="107"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="108"/>
+      <c r="C21" s="109" t="s">
+        <v>638</v>
+      </c>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="100" t="s">
+        <v>641</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10120,32 +10565,32 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="44" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="44" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="44" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>439</v>
       </c>
     </row>
@@ -10155,17 +10600,17 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>475</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B8" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0A00-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0A00-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0A00-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00000000-0004-0000-0A00-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -10173,7 +10618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10186,7 +10631,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="30">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>281</v>
       </c>
     </row>
@@ -10196,12 +10641,12 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="56" t="s">
         <v>456</v>
       </c>
     </row>
@@ -10216,229 +10661,229 @@
       </c>
     </row>
     <row r="27" spans="2:11">
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="58" t="s">
         <v>471</v>
       </c>
-      <c r="K27" s="65" t="s">
+      <c r="K27" s="58" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="28" spans="2:11">
-      <c r="B28" s="64"/>
+      <c r="B28" s="57"/>
     </row>
     <row r="29" spans="2:11">
-      <c r="B29" s="64"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" spans="2:11">
-      <c r="B30" s="64"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" spans="2:11">
-      <c r="B31" s="64"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" spans="2:11">
-      <c r="B32" s="64"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="64"/>
+      <c r="B33" s="57"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="64"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="64"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="64"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="64"/>
+      <c r="B37" s="57"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="64"/>
+      <c r="B38" s="57"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="64"/>
+      <c r="B39" s="57"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="64"/>
+      <c r="B40" s="57"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="64"/>
+      <c r="B41" s="57"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="64"/>
+      <c r="B42" s="57"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="64"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="64"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="64"/>
+      <c r="B45" s="57"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="64"/>
+      <c r="B46" s="57"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="64"/>
+      <c r="B47" s="57"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="64"/>
+      <c r="B48" s="57"/>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="64"/>
+      <c r="B49" s="57"/>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="65" t="s">
+      <c r="B50" s="58" t="s">
         <v>469</v>
       </c>
-      <c r="K50" s="65" t="s">
+      <c r="K50" s="58" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="71" spans="2:11">
-      <c r="K71" s="66"/>
+      <c r="K71" s="59"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="65" t="s">
+      <c r="B72" s="58" t="s">
         <v>466</v>
       </c>
-      <c r="K72" s="65" t="s">
+      <c r="K72" s="58" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="49"/>
+      <c r="B73" s="43"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="49"/>
+      <c r="B74" s="43"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="49"/>
+      <c r="B76" s="43"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="49"/>
+      <c r="B77" s="43"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="49"/>
+      <c r="B78" s="43"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="49"/>
+      <c r="B80" s="43"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="49"/>
+      <c r="B81" s="43"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="49"/>
+      <c r="B82" s="43"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="49"/>
+      <c r="B84" s="43"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="49"/>
+      <c r="B85" s="43"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="49"/>
+      <c r="B86" s="43"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="49"/>
+      <c r="B88" s="43"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="49"/>
+      <c r="B89" s="43"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="49"/>
+      <c r="B90" s="43"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="49"/>
+      <c r="B92" s="43"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="49"/>
+      <c r="B93" s="43"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="65" t="s">
+      <c r="B94" s="58" t="s">
         <v>465</v>
       </c>
-      <c r="K94" s="65" t="s">
+      <c r="K94" s="58" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="49"/>
+      <c r="B96" s="43"/>
     </row>
     <row r="97" spans="2:2">
-      <c r="B97" s="49"/>
+      <c r="B97" s="43"/>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="49"/>
+      <c r="B98" s="43"/>
     </row>
     <row r="100" spans="2:2">
-      <c r="B100" s="49"/>
+      <c r="B100" s="43"/>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="49"/>
+      <c r="B101" s="43"/>
     </row>
     <row r="102" spans="2:2">
-      <c r="B102" s="49"/>
+      <c r="B102" s="43"/>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="49"/>
+      <c r="B104" s="43"/>
     </row>
     <row r="105" spans="2:2">
-      <c r="B105" s="49"/>
+      <c r="B105" s="43"/>
     </row>
     <row r="106" spans="2:2">
-      <c r="B106" s="49"/>
+      <c r="B106" s="43"/>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="49"/>
+      <c r="B108" s="43"/>
     </row>
     <row r="109" spans="2:2">
-      <c r="B109" s="49"/>
+      <c r="B109" s="43"/>
     </row>
     <row r="110" spans="2:2">
-      <c r="B110" s="49"/>
+      <c r="B110" s="43"/>
     </row>
     <row r="112" spans="2:2">
-      <c r="B112" s="49"/>
+      <c r="B112" s="43"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="49"/>
+      <c r="B113" s="43"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="49"/>
+      <c r="B114" s="43"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="49"/>
+      <c r="B115" s="43"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="65" t="s">
+      <c r="B116" s="58" t="s">
         <v>463</v>
       </c>
-      <c r="K116" s="65" t="s">
+      <c r="K116" s="58" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="49"/>
+      <c r="B118" s="43"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="49"/>
+      <c r="B119" s="43"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="49"/>
+      <c r="B121" s="43"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="49"/>
+      <c r="B122" s="43"/>
     </row>
     <row r="138" spans="2:2">
-      <c r="B138" s="65" t="s">
+      <c r="B138" s="58" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="161" spans="2:10">
-      <c r="B161" s="58" t="s">
+      <c r="B161" s="51" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10458,7 +10903,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -10467,17 +10912,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A91" workbookViewId="0">
       <selection activeCell="S150" sqref="S150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:20" ht="18">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="44" t="s">
         <v>417</v>
       </c>
     </row>
@@ -10487,120 +10932,119 @@
       </c>
     </row>
     <row r="3" spans="1:20">
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:20">
-      <c r="B4" s="66"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60" t="s">
         <v>615</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="12"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:20">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>420</v>
       </c>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="B6" s="66"/>
-      <c r="C6" s="67" t="s">
+      <c r="B6" s="59"/>
+      <c r="C6" s="60" t="s">
         <v>616</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:20">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
       <c r="T7" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:20">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="69"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
     </row>
     <row r="9" spans="1:20">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67" t="s">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60" t="s">
         <v>617</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="12"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="10"/>
     </row>
     <row r="10" spans="1:20">
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:20">
-      <c r="B11" s="66"/>
-      <c r="C11" s="19" t="s">
+      <c r="B11" s="59"/>
+      <c r="C11" s="17" t="s">
         <v>423</v>
       </c>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
     </row>
     <row r="12" spans="1:20">
-      <c r="B12" s="66"/>
-      <c r="C12" s="19" t="s">
+      <c r="B12" s="59"/>
+      <c r="C12" s="17" t="s">
         <v>424</v>
       </c>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="66"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
     </row>
     <row r="13" spans="1:20">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>425</v>
       </c>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
     </row>
     <row r="14" spans="1:20">
-      <c r="B14" s="66"/>
-      <c r="C14" s="112" t="s">
+      <c r="B14" s="59"/>
+      <c r="C14" s="99" t="s">
         <v>614</v>
       </c>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
     </row>
     <row r="16" spans="1:20">
       <c r="B16" t="s">
@@ -10613,20 +11057,20 @@
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="B34" s="48"/>
+      <c r="B34" s="42"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="39" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="39" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="23.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="41" t="s">
         <v>410</v>
       </c>
     </row>
@@ -10644,81 +11088,81 @@
       <c r="B41" t="s">
         <v>428</v>
       </c>
-      <c r="K41" s="45" t="s">
+      <c r="K41" s="39" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="45" t="s">
+      <c r="B66" s="39" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="45" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="46" t="s">
+      <c r="B68" s="40" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="46" t="s">
+      <c r="B69" s="40" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="45" t="s">
+      <c r="B70" s="39" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="46" t="s">
+      <c r="B97" s="40" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="46" t="s">
+      <c r="B98" s="40" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="46" t="s">
         <v>432</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="52" t="s">
+      <c r="B100" s="46" t="s">
         <v>433</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" s="10" t="s">
         <v>409</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
     </row>
     <row r="139" spans="2:2">
-      <c r="B139" s="46" t="s">
+      <c r="B139" s="40" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="140" spans="2:2">
-      <c r="B140" s="46" t="s">
+      <c r="B140" s="40" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="141" spans="2:2">
-      <c r="B141" s="45" t="s">
+      <c r="B141" s="39" t="s">
         <v>415</v>
       </c>
     </row>
@@ -10731,7 +11175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -10741,42 +11185,39 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="23.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="23" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="24.75">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="24.75">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="17.25">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="17.25">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="17.25">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="17.25">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" ht="24.75">
       <c r="B9" s="2" t="s">
@@ -10794,223 +11235,220 @@
       </c>
     </row>
     <row r="13" spans="1:2" ht="23.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="23" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="24" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="24" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="24" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="24" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="24" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="25" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="25" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="27" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="27" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="27" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="26" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="27" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="29" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="28" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="28" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="28" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="11"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="29" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="28" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" s="3"/>
-    </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="27" t="s">
+      <c r="B37" s="24" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="27" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="24" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="24" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="30" t="s">
+      <c r="B41" s="27" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="27" t="s">
+      <c r="B42" s="24" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="24" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="24" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="26" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="24" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="24" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="24" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="24" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="34" t="s">
+      <c r="B50" s="25" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="24" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="24" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="24" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="24" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="24" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="24" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="23.25">
-      <c r="B76" s="24" t="s">
+      <c r="B76" s="22" t="s">
         <v>373</v>
       </c>
     </row>
@@ -11020,7 +11458,7 @@
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="C78" s="25" t="s">
+      <c r="C78" s="7" t="s">
         <v>330</v>
       </c>
     </row>
@@ -11120,52 +11558,52 @@
       </c>
     </row>
     <row r="98" spans="3:10">
-      <c r="C98" s="35" t="s">
+      <c r="C98" s="30" t="s">
         <v>312</v>
       </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
     </row>
     <row r="99" spans="3:10">
-      <c r="C99" s="35" t="s">
+      <c r="C99" s="30" t="s">
         <v>313</v>
       </c>
-      <c r="D99" s="35"/>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
     </row>
     <row r="100" spans="3:10">
-      <c r="C100" s="35" t="s">
+      <c r="C100" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D100" s="35"/>
-      <c r="E100" s="35"/>
-      <c r="F100" s="35"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
     </row>
     <row r="101" spans="3:10">
-      <c r="C101" s="35" t="s">
+      <c r="C101" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="D101" s="35"/>
-      <c r="E101" s="35"/>
-      <c r="F101" s="35"/>
-      <c r="G101" s="35"/>
-      <c r="H101" s="35"/>
-      <c r="I101" s="35"/>
-      <c r="J101" s="35"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
     </row>
     <row r="102" spans="3:10">
-      <c r="C102" s="35" t="s">
+      <c r="C102" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="D102" s="35"/>
-      <c r="E102" s="35"/>
-      <c r="F102" s="35"/>
-      <c r="G102" s="35"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="35"/>
-      <c r="J102" s="35"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
     </row>
     <row r="103" spans="3:10">
       <c r="C103" t="s">
@@ -11236,7 +11674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -11256,410 +11694,410 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="12" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15" t="s">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>272</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="15">
+      <c r="A4" s="13">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="15">
+      <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="15">
+      <c r="A6" s="13">
         <v>5</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15">
+      <c r="A7" s="13">
         <v>6</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>8</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>9</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>10</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>11</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="15">
+      <c r="A13" s="13">
         <v>12</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="15">
+      <c r="A14" s="13">
         <v>13</v>
       </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="15">
+      <c r="A15" s="13">
         <v>14</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="15">
+      <c r="A16" s="13">
         <v>15</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15">
+      <c r="A17" s="13">
         <v>16</v>
       </c>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15">
+      <c r="A18" s="13">
         <v>17</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15">
+      <c r="A19" s="13">
         <v>18</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="15">
+      <c r="A20" s="13">
         <v>19</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15">
+      <c r="A21" s="13">
         <v>20</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="15">
+      <c r="A22" s="13">
         <v>21</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15">
+      <c r="A23" s="13">
         <v>22</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15">
+      <c r="A24" s="13">
         <v>23</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="15">
+      <c r="A25" s="13">
         <v>24</v>
       </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="15">
+      <c r="A26" s="13">
         <v>25</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="15">
+      <c r="A27" s="13">
         <v>26</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="15">
+      <c r="A28" s="13">
         <v>27</v>
       </c>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15">
+      <c r="A29" s="13">
         <v>28</v>
       </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="15">
+      <c r="A30" s="13">
         <v>29</v>
       </c>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15">
+      <c r="A31" s="13">
         <v>30</v>
       </c>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -11668,7 +12106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A135" workbookViewId="0">
@@ -11677,1626 +12115,1618 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="2" max="2" width="8.875" style="76"/>
-    <col min="3" max="5" width="8.875" style="71"/>
+    <col min="2" max="2" width="8.875" style="66"/>
+    <col min="3" max="5" width="8.875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="22" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="67" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="67" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="68" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="68" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="68" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="68" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="18">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="79" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="76" t="s">
         <v>590</v>
       </c>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="93" t="s">
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="81" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="80" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="70" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="80" t="s">
         <v>589</v>
       </c>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="93" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="81" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="82"/>
+      <c r="B13" s="72"/>
     </row>
     <row r="14" spans="1:7" ht="18">
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="79" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="77" t="s">
+      <c r="B15" s="67" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="86" t="s">
+      <c r="B16" s="76" t="s">
         <v>591</v>
       </c>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="88"/>
-      <c r="G16" s="80" t="s">
+      <c r="C16" s="77"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="70" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="76" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="80" t="s">
+      <c r="C17" s="77"/>
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="70" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="81" t="s">
+      <c r="B18" s="71" t="s">
         <v>560</v>
       </c>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="80" t="s">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="70" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="81" t="s">
+      <c r="B19" s="71" t="s">
         <v>561</v>
       </c>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="12"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="2:7" ht="14.25">
       <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="69" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="94" t="s">
+      <c r="B22" s="82" t="s">
         <v>593</v>
       </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="80" t="s">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="70" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="81" t="s">
+      <c r="B23" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="80" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="70" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="80" t="s">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="70" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="80" t="s">
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="70" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="81" t="s">
+      <c r="B27" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="80" t="s">
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="70" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="71" t="s">
         <v>588</v>
       </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="80" t="s">
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="70" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="86" t="s">
+      <c r="B30" s="76" t="s">
         <v>127</v>
       </c>
-      <c r="C30" s="87"/>
-      <c r="D30" s="87"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="80" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="70" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="83"/>
+      <c r="B31" s="73"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="74" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="33" spans="2:8">
-      <c r="B33" s="97" t="s">
+      <c r="B33" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="87"/>
-      <c r="D33" s="87"/>
-      <c r="E33" s="87"/>
-      <c r="F33" s="88"/>
-      <c r="G33" s="80" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="70" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="34" spans="2:8">
-      <c r="B34" s="97" t="s">
+      <c r="B34" s="85" t="s">
         <v>132</v>
       </c>
-      <c r="C34" s="87"/>
-      <c r="D34" s="87"/>
-      <c r="E34" s="87"/>
-      <c r="F34" s="88"/>
-      <c r="G34" s="80" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="77"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="70" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:8">
-      <c r="B35" s="86" t="s">
+      <c r="B35" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="87"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="88"/>
-      <c r="G35" s="80" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="70" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:8">
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="76" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="88"/>
-      <c r="G36" s="80" t="s">
+      <c r="C36" s="77"/>
+      <c r="D36" s="77"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="77"/>
+      <c r="G36" s="70" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="37" spans="2:8">
-      <c r="B37" s="86" t="s">
+      <c r="B37" s="76" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="87"/>
-      <c r="D37" s="87"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="88"/>
-      <c r="G37" s="80" t="s">
+      <c r="C37" s="77"/>
+      <c r="D37" s="77"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="70" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="38" spans="2:8">
-      <c r="B38" s="86" t="s">
+      <c r="B38" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="87"/>
-      <c r="D38" s="87"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="88"/>
-      <c r="G38" s="80" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="77"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="70" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="39" spans="2:8">
-      <c r="B39" s="83"/>
+      <c r="B39" s="73"/>
     </row>
     <row r="40" spans="2:8">
-      <c r="B40" s="84" t="s">
+      <c r="B40" s="74" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="2:8">
-      <c r="B41" s="97" t="s">
+      <c r="B41" s="85" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="87"/>
-      <c r="D41" s="87"/>
-      <c r="E41" s="87"/>
-      <c r="F41" s="88"/>
-      <c r="G41" s="80" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="70" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="42" spans="2:8">
-      <c r="B42" s="97" t="s">
+      <c r="B42" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="C42" s="87"/>
-      <c r="D42" s="87"/>
-      <c r="E42" s="87"/>
-      <c r="F42" s="88"/>
-      <c r="G42" s="80" t="s">
+      <c r="C42" s="77"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="77"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="70" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="43" spans="2:8">
-      <c r="B43" s="97" t="s">
+      <c r="B43" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="88"/>
-      <c r="G43" s="80" t="s">
+      <c r="C43" s="77"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="70" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="44" spans="2:8">
-      <c r="B44" s="97" t="s">
+      <c r="B44" s="85" t="s">
         <v>148</v>
       </c>
-      <c r="C44" s="87"/>
-      <c r="D44" s="87"/>
-      <c r="E44" s="87"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="89" t="s">
+      <c r="C44" s="77"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="77"/>
+      <c r="F44" s="77"/>
+      <c r="G44" s="78" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="45" spans="2:8">
-      <c r="B45" s="97" t="s">
+      <c r="B45" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C45" s="87"/>
-      <c r="D45" s="87"/>
-      <c r="E45" s="87"/>
-      <c r="F45" s="88"/>
-      <c r="G45" s="80" t="s">
+      <c r="C45" s="77"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="70" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="46" spans="2:8">
-      <c r="B46" s="97" t="s">
+      <c r="B46" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="87"/>
-      <c r="E46" s="87"/>
-      <c r="F46" s="88"/>
-      <c r="G46" s="80" t="s">
+      <c r="C46" s="77"/>
+      <c r="D46" s="77"/>
+      <c r="E46" s="77"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="70" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="47" spans="2:8">
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="85" t="s">
         <v>595</v>
       </c>
-      <c r="C47" s="87"/>
-      <c r="D47" s="87"/>
-      <c r="E47" s="87"/>
-      <c r="F47" s="88"/>
-      <c r="H47" s="80" t="s">
+      <c r="C47" s="77"/>
+      <c r="D47" s="77"/>
+      <c r="E47" s="77"/>
+      <c r="F47" s="77"/>
+      <c r="H47" s="70" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:8">
-      <c r="B48" s="97" t="s">
+      <c r="B48" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="88"/>
-      <c r="G48" s="80" t="s">
+      <c r="C48" s="77"/>
+      <c r="D48" s="77"/>
+      <c r="E48" s="77"/>
+      <c r="F48" s="77"/>
+      <c r="G48" s="70" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="97" t="s">
+      <c r="B49" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="87"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="80" t="s">
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="70" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="82"/>
+      <c r="B50" s="72"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="97" t="s">
+      <c r="B51" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="G51" s="80" t="s">
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="G51" s="70" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="97" t="s">
+      <c r="B52" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="G52" s="80" t="s">
+      <c r="C52" s="77"/>
+      <c r="D52" s="77"/>
+      <c r="E52" s="77"/>
+      <c r="G52" s="70" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="97" t="s">
+      <c r="B53" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="G53" s="80" t="s">
+      <c r="C53" s="77"/>
+      <c r="D53" s="77"/>
+      <c r="E53" s="77"/>
+      <c r="G53" s="70" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="82"/>
+      <c r="B54" s="72"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="86" t="s">
+      <c r="B55" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87"/>
-      <c r="G55" s="80" t="s">
+      <c r="C55" s="77"/>
+      <c r="D55" s="77"/>
+      <c r="E55" s="77"/>
+      <c r="G55" s="70" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="86" t="s">
+      <c r="B57" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87"/>
-      <c r="G57" s="80" t="s">
+      <c r="C57" s="77"/>
+      <c r="D57" s="77"/>
+      <c r="E57" s="77"/>
+      <c r="G57" s="70" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="G59" s="80" t="s">
+      <c r="C59" s="77"/>
+      <c r="D59" s="77"/>
+      <c r="E59" s="77"/>
+      <c r="G59" s="70" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="79" t="s">
+      <c r="B61" s="69" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="81" t="s">
+      <c r="B62" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="C62" s="72"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="72"/>
-      <c r="G62" s="80" t="s">
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="G62" s="70" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="81" t="s">
+      <c r="B63" s="71" t="s">
         <v>173</v>
       </c>
-      <c r="C63" s="72"/>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="G63" s="80" t="s">
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="G63" s="70" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="81" t="s">
+      <c r="B64" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="C64" s="72"/>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="G64" s="80" t="s">
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="G64" s="70" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="81" t="s">
+      <c r="B65" s="71" t="s">
         <v>177</v>
       </c>
-      <c r="C65" s="72"/>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="G65" s="80" t="s">
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="G65" s="70" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="81" t="s">
+      <c r="B67" s="71" t="s">
         <v>179</v>
       </c>
-      <c r="C67" s="72"/>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="G67" s="80" t="s">
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="G67" s="70" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="81" t="s">
+      <c r="B68" s="71" t="s">
         <v>183</v>
       </c>
-      <c r="C68" s="72"/>
-      <c r="D68" s="72"/>
-      <c r="E68" s="72"/>
-      <c r="G68" s="80" t="s">
+      <c r="C68" s="10"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="G68" s="70" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="81" t="s">
+      <c r="B69" s="71" t="s">
         <v>185</v>
       </c>
-      <c r="C69" s="72"/>
-      <c r="D69" s="72"/>
-      <c r="E69" s="72"/>
-      <c r="G69" s="80" t="s">
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="G69" s="70" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="82"/>
+      <c r="B70" s="72"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="81" t="s">
+      <c r="B71" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="72"/>
-      <c r="E71" s="72"/>
-      <c r="G71" s="80" t="s">
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="G71" s="70" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="81" t="s">
+      <c r="B73" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="C73" s="72"/>
-      <c r="D73" s="72"/>
-      <c r="E73" s="72"/>
-      <c r="G73" s="80" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="G73" s="70" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="79" t="s">
+      <c r="B75" s="69" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="97" t="s">
+      <c r="B76" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="G76" s="80" t="s">
+      <c r="C76" s="86"/>
+      <c r="D76" s="86"/>
+      <c r="E76" s="86"/>
+      <c r="G76" s="70" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="82"/>
-      <c r="C77" s="99"/>
-      <c r="D77" s="99"/>
-      <c r="E77" s="99"/>
+      <c r="B77" s="72"/>
+      <c r="C77" s="87"/>
+      <c r="D77" s="87"/>
+      <c r="E77" s="87"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="97" t="s">
+      <c r="B78" s="85" t="s">
         <v>596</v>
       </c>
-      <c r="C78" s="98"/>
-      <c r="D78" s="98"/>
-      <c r="E78" s="98"/>
-      <c r="G78" s="82" t="s">
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="86"/>
+      <c r="G78" s="72" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="81" t="s">
+      <c r="B79" s="71" t="s">
         <v>563</v>
       </c>
-      <c r="C79" s="72"/>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="G79" s="80" t="s">
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="G79" s="70" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="81" t="s">
+      <c r="B80" s="71" t="s">
         <v>564</v>
       </c>
-      <c r="C80" s="72"/>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="G80" s="80" t="s">
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="G80" s="70" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="81" t="s">
+      <c r="B81" s="71" t="s">
         <v>565</v>
       </c>
-      <c r="C81" s="72"/>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="G81" s="80" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="G81" s="70" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="81" t="s">
+      <c r="B82" s="71" t="s">
         <v>566</v>
       </c>
-      <c r="C82" s="72"/>
-      <c r="D82" s="72"/>
-      <c r="E82" s="72"/>
-      <c r="G82" s="80" t="s">
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="G82" s="70" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="81" t="s">
+      <c r="B83" s="71" t="s">
         <v>567</v>
       </c>
-      <c r="C83" s="72"/>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="G83" s="80" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="G83" s="70" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="81" t="s">
+      <c r="B84" s="71" t="s">
         <v>568</v>
       </c>
-      <c r="C84" s="72"/>
-      <c r="D84" s="72"/>
-      <c r="E84" s="72"/>
-      <c r="G84" s="80" t="s">
+      <c r="C84" s="10"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="G84" s="70" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="81" t="s">
+      <c r="B85" s="71" t="s">
         <v>569</v>
       </c>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="G85" s="80" t="s">
+      <c r="C85" s="10"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="G85" s="70" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="81" t="s">
+      <c r="B87" s="71" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="72"/>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="G87" s="80" t="s">
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="G87" s="70" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="82"/>
+      <c r="B88" s="72"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="81" t="s">
+      <c r="B89" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="C89" s="72"/>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="G89" s="80" t="s">
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="G89" s="70" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="81" t="s">
+      <c r="B91" s="71" t="s">
         <v>201</v>
       </c>
-      <c r="C91" s="72"/>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="G91" s="80" t="s">
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="G91" s="70" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="96"/>
+      <c r="B92" s="84"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="95" t="s">
+      <c r="B93" s="83" t="s">
         <v>202</v>
       </c>
-      <c r="C93" s="72"/>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="G93" s="80" t="s">
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="G93" s="70" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="95" t="s">
+      <c r="B94" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="C94" s="72"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="72"/>
-      <c r="G94" s="80" t="s">
+      <c r="C94" s="10"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="G94" s="70" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="95" t="s">
+      <c r="B95" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C95" s="72"/>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="G95" s="80" t="s">
+      <c r="C95" s="10"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="G95" s="70" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="95" t="s">
+      <c r="B96" s="83" t="s">
         <v>208</v>
       </c>
-      <c r="C96" s="72"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="72"/>
-      <c r="G96" s="80" t="s">
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="G96" s="70" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="95" t="s">
+      <c r="B97" s="83" t="s">
         <v>600</v>
       </c>
-      <c r="C97" s="72"/>
-      <c r="D97" s="72"/>
-      <c r="E97" s="72"/>
-      <c r="G97" s="80" t="s">
+      <c r="C97" s="10"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="G97" s="70" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="82"/>
+      <c r="B98" s="72"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="95" t="s">
+      <c r="B99" s="83" t="s">
         <v>211</v>
       </c>
-      <c r="C99" s="72"/>
-      <c r="D99" s="72"/>
-      <c r="E99" s="72"/>
-      <c r="G99" s="80" t="s">
+      <c r="C99" s="10"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="G99" s="70" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="95" t="s">
+      <c r="B100" s="83" t="s">
         <v>213</v>
       </c>
-      <c r="C100" s="72"/>
-      <c r="D100" s="72"/>
-      <c r="E100" s="72"/>
-      <c r="G100" s="80" t="s">
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="G100" s="70" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="81" t="s">
+      <c r="B101" s="71" t="s">
         <v>215</v>
       </c>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-      <c r="E101" s="72"/>
-      <c r="G101" s="80" t="s">
+      <c r="C101" s="10"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="G101" s="70" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="81" t="s">
+      <c r="B103" s="71" t="s">
         <v>217</v>
       </c>
-      <c r="C103" s="72"/>
-      <c r="D103" s="72"/>
-      <c r="E103" s="72"/>
-      <c r="G103" s="80" t="s">
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="G103" s="70" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="100" t="s">
+      <c r="B105" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="C105" s="72"/>
-      <c r="D105" s="72"/>
-      <c r="E105" s="72"/>
-      <c r="G105" s="80" t="s">
+      <c r="C105" s="10"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="G105" s="70" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="82"/>
+      <c r="B106" s="72"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="84" t="s">
+      <c r="B107" s="74" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="95" t="s">
+      <c r="B108" s="83" t="s">
         <v>598</v>
       </c>
-      <c r="C108" s="72"/>
-      <c r="D108" s="72"/>
-      <c r="E108" s="72"/>
-      <c r="G108" s="80" t="s">
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="G108" s="70" t="s">
         <v>597</v>
       </c>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="81" t="s">
+      <c r="B109" s="71" t="s">
         <v>224</v>
       </c>
-      <c r="C109" s="72"/>
-      <c r="D109" s="72"/>
-      <c r="E109" s="72"/>
-      <c r="G109" s="80" t="s">
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="G109" s="70" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="81" t="s">
+      <c r="B110" s="71" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="72"/>
-      <c r="D110" s="72"/>
-      <c r="E110" s="72"/>
-      <c r="G110" s="80" t="s">
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="G110" s="70" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="86" t="s">
+      <c r="B111" s="76" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="87"/>
-      <c r="D111" s="87"/>
-      <c r="E111" s="87"/>
-      <c r="G111" s="89" t="s">
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="G111" s="78" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="81" t="s">
+      <c r="B113" s="71" t="s">
         <v>273</v>
       </c>
-      <c r="C113" s="72"/>
-      <c r="D113" s="72"/>
-      <c r="E113" s="72"/>
-      <c r="G113" s="80" t="s">
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="G113" s="70" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="82"/>
+      <c r="B114" s="72"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="95" t="s">
+      <c r="B115" s="83" t="s">
         <v>269</v>
       </c>
-      <c r="C115" s="72"/>
-      <c r="D115" s="72"/>
-      <c r="E115" s="72"/>
-      <c r="G115" s="80" t="s">
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="G115" s="70" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="96"/>
+      <c r="B116" s="84"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="95" t="s">
+      <c r="B117" s="83" t="s">
         <v>228</v>
       </c>
-      <c r="C117" s="72"/>
-      <c r="D117" s="72"/>
-      <c r="E117" s="72"/>
-      <c r="G117" s="80" t="s">
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="G117" s="70" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="81" t="s">
+      <c r="B118" s="71" t="s">
         <v>230</v>
       </c>
-      <c r="C118" s="72"/>
-      <c r="D118" s="72"/>
-      <c r="E118" s="72"/>
-      <c r="G118" s="80" t="s">
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="G118" s="70" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="81" t="s">
+      <c r="B119" s="71" t="s">
         <v>232</v>
       </c>
-      <c r="C119" s="72"/>
-      <c r="D119" s="72"/>
-      <c r="E119" s="72"/>
-      <c r="G119" s="80" t="s">
+      <c r="C119" s="10"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="G119" s="70" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="82"/>
+      <c r="B120" s="72"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="84" t="s">
+      <c r="B121" s="74" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="86" t="s">
+      <c r="B122" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="C122" s="87"/>
-      <c r="D122" s="87"/>
-      <c r="E122" s="87"/>
-      <c r="G122" s="80" t="s">
+      <c r="C122" s="77"/>
+      <c r="D122" s="77"/>
+      <c r="E122" s="77"/>
+      <c r="G122" s="70" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="86" t="s">
+      <c r="B123" s="76" t="s">
         <v>237</v>
       </c>
-      <c r="C123" s="87"/>
-      <c r="D123" s="87"/>
-      <c r="E123" s="87"/>
-      <c r="G123" s="80" t="s">
+      <c r="C123" s="77"/>
+      <c r="D123" s="77"/>
+      <c r="E123" s="77"/>
+      <c r="G123" s="70" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="86" t="s">
+      <c r="B124" s="76" t="s">
         <v>239</v>
       </c>
-      <c r="C124" s="87"/>
-      <c r="D124" s="87"/>
-      <c r="E124" s="87"/>
-      <c r="G124" s="80" t="s">
+      <c r="C124" s="77"/>
+      <c r="D124" s="77"/>
+      <c r="E124" s="77"/>
+      <c r="G124" s="70" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="86" t="s">
+      <c r="B126" s="76" t="s">
         <v>241</v>
       </c>
-      <c r="C126" s="87"/>
-      <c r="D126" s="87"/>
-      <c r="E126" s="87"/>
-      <c r="F126" s="8"/>
-      <c r="G126" s="80" t="s">
+      <c r="C126" s="77"/>
+      <c r="D126" s="77"/>
+      <c r="E126" s="77"/>
+      <c r="G126" s="70" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="95" t="s">
+      <c r="B127" s="83" t="s">
         <v>243</v>
       </c>
-      <c r="C127" s="72"/>
-      <c r="D127" s="72"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="8"/>
-      <c r="G127" s="80" t="s">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="G127" s="70" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="86" t="s">
+      <c r="B128" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="C128" s="87"/>
-      <c r="D128" s="87"/>
-      <c r="E128" s="87"/>
-      <c r="F128" s="8"/>
-      <c r="G128" s="80" t="s">
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="G128" s="70" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="86" t="s">
+      <c r="B129" s="76" t="s">
         <v>247</v>
       </c>
-      <c r="C129" s="87"/>
-      <c r="D129" s="87"/>
-      <c r="E129" s="87"/>
-      <c r="F129" s="8"/>
-      <c r="G129" s="80" t="s">
+      <c r="C129" s="77"/>
+      <c r="D129" s="77"/>
+      <c r="E129" s="77"/>
+      <c r="G129" s="70" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="86" t="s">
+      <c r="B130" s="76" t="s">
         <v>249</v>
       </c>
-      <c r="C130" s="87"/>
-      <c r="D130" s="87"/>
-      <c r="E130" s="87"/>
-      <c r="F130" s="8"/>
-      <c r="G130" s="80" t="s">
+      <c r="C130" s="77"/>
+      <c r="D130" s="77"/>
+      <c r="E130" s="77"/>
+      <c r="G130" s="70" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="86" t="s">
+      <c r="B132" s="76" t="s">
         <v>250</v>
       </c>
-      <c r="C132" s="87"/>
-      <c r="D132" s="87"/>
-      <c r="E132" s="87"/>
-      <c r="G132" s="80" t="s">
+      <c r="C132" s="77"/>
+      <c r="D132" s="77"/>
+      <c r="E132" s="77"/>
+      <c r="G132" s="70" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="97" t="s">
+      <c r="B134" s="85" t="s">
         <v>252</v>
       </c>
-      <c r="C134" s="87"/>
-      <c r="D134" s="87"/>
-      <c r="E134" s="87"/>
-      <c r="G134" s="80" t="s">
+      <c r="C134" s="77"/>
+      <c r="D134" s="77"/>
+      <c r="E134" s="77"/>
+      <c r="G134" s="70" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="97" t="s">
+      <c r="B135" s="85" t="s">
         <v>253</v>
       </c>
-      <c r="C135" s="87"/>
-      <c r="D135" s="87"/>
-      <c r="E135" s="87"/>
-      <c r="G135" s="80" t="s">
+      <c r="C135" s="77"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="G135" s="70" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="79" t="s">
+      <c r="B137" s="69" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="86" t="s">
+      <c r="B138" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="C138" s="87"/>
-      <c r="D138" s="87"/>
-      <c r="E138" s="87"/>
-      <c r="G138" s="80" t="s">
+      <c r="C138" s="77"/>
+      <c r="D138" s="77"/>
+      <c r="E138" s="77"/>
+      <c r="G138" s="70" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="85" t="s">
+      <c r="B140" s="75" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="101" t="s">
+      <c r="B141" s="89" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="85" t="s">
+      <c r="B142" s="75" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="101" t="s">
+      <c r="B143" s="89" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="102" t="s">
+      <c r="B144" s="90" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="145" spans="2:2">
-      <c r="B145" s="101" t="s">
+      <c r="B145" s="89" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="146" spans="2:2">
-      <c r="B146" s="103" t="s">
+      <c r="B146" s="91" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="147" spans="2:2">
-      <c r="B147" s="103" t="s">
+      <c r="B147" s="91" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="148" spans="2:2">
-      <c r="B148" s="102" t="s">
+      <c r="B148" s="90" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="149" spans="2:2">
-      <c r="B149" s="101" t="s">
+      <c r="B149" s="89" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="150" spans="2:2">
-      <c r="B150" s="85" t="s">
+      <c r="B150" s="75" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="151" spans="2:2">
-      <c r="B151" s="101" t="s">
+      <c r="B151" s="89" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="152" spans="2:2">
-      <c r="B152" s="85" t="s">
+      <c r="B152" s="75" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="153" spans="2:2">
-      <c r="B153" s="101" t="s">
+      <c r="B153" s="89" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="154" spans="2:2">
-      <c r="B154" s="103" t="s">
+      <c r="B154" s="91" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="155" spans="2:2">
-      <c r="B155" s="85" t="s">
+      <c r="B155" s="75" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="156" spans="2:2">
-      <c r="B156" s="101" t="s">
+      <c r="B156" s="89" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="157" spans="2:2">
-      <c r="B157" s="101" t="s">
+      <c r="B157" s="89" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="158" spans="2:2">
-      <c r="B158" s="101" t="s">
+      <c r="B158" s="89" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="159" spans="2:2">
-      <c r="B159" s="101" t="s">
+      <c r="B159" s="89" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="160" spans="2:2">
-      <c r="B160" s="101" t="s">
+      <c r="B160" s="89" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="161" spans="2:2">
-      <c r="B161" s="101" t="s">
+      <c r="B161" s="89" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="162" spans="2:2">
-      <c r="B162" s="102" t="s">
+      <c r="B162" s="90" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="163" spans="2:2">
-      <c r="B163" s="101" t="s">
+      <c r="B163" s="89" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="164" spans="2:2">
-      <c r="B164" s="103" t="s">
+      <c r="B164" s="91" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="165" spans="2:2">
-      <c r="B165" s="103" t="s">
+      <c r="B165" s="91" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="166" spans="2:2">
-      <c r="B166" s="104"/>
+      <c r="B166" s="92"/>
     </row>
     <row r="167" spans="2:2">
-      <c r="B167" s="103" t="s">
+      <c r="B167" s="91" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="168" spans="2:2">
-      <c r="B168" s="104"/>
+      <c r="B168" s="92"/>
     </row>
     <row r="169" spans="2:2">
-      <c r="B169" s="103" t="s">
+      <c r="B169" s="91" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="170" spans="2:2">
-      <c r="B170" s="103" t="s">
+      <c r="B170" s="91" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="171" spans="2:2">
-      <c r="B171" s="104"/>
+      <c r="B171" s="92"/>
     </row>
     <row r="172" spans="2:2">
-      <c r="B172" s="103" t="s">
+      <c r="B172" s="91" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="173" spans="2:2">
-      <c r="B173" s="104"/>
+      <c r="B173" s="92"/>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" s="105" t="s">
+      <c r="B174" s="93" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="102" t="s">
+      <c r="B175" s="90" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="101" t="s">
+      <c r="B176" s="89" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="103" t="s">
+      <c r="B177" s="91" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="103" t="s">
+      <c r="B178" s="91" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="179" spans="2:2">
-      <c r="B179" s="103" t="s">
+      <c r="B179" s="91" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="180" spans="2:2">
-      <c r="B180" s="102" t="s">
+      <c r="B180" s="90" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="181" spans="2:2">
-      <c r="B181" s="101" t="s">
+      <c r="B181" s="89" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="182" spans="2:2">
-      <c r="B182" s="101" t="s">
+      <c r="B182" s="89" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="183" spans="2:2">
-      <c r="B183" s="101" t="s">
+      <c r="B183" s="89" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="184" spans="2:2">
-      <c r="B184" s="102" t="s">
+      <c r="B184" s="90" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="185" spans="2:2">
-      <c r="B185" s="101" t="s">
+      <c r="B185" s="89" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="186" spans="2:2">
-      <c r="B186" s="101" t="s">
+      <c r="B186" s="89" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="187" spans="2:2">
-      <c r="B187" s="101" t="s">
+      <c r="B187" s="89" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="188" spans="2:2">
-      <c r="B188" s="102" t="s">
+      <c r="B188" s="90" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="189" spans="2:2">
-      <c r="B189" s="101" t="s">
+      <c r="B189" s="89" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="190" spans="2:2">
-      <c r="B190" s="85" t="s">
+      <c r="B190" s="75" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="191" spans="2:2">
-      <c r="B191" s="101" t="s">
+      <c r="B191" s="89" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="192" spans="2:2">
-      <c r="B192" s="103" t="s">
+      <c r="B192" s="91" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="193" spans="2:2">
-      <c r="B193" s="103" t="s">
+      <c r="B193" s="91" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="194" spans="2:2">
-      <c r="B194" s="103" t="s">
+      <c r="B194" s="91" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="195" spans="2:2">
-      <c r="B195" s="85" t="s">
+      <c r="B195" s="75" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="196" spans="2:2">
-      <c r="B196" s="85" t="s">
+      <c r="B196" s="75" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="197" spans="2:2">
-      <c r="B197" s="101" t="s">
+      <c r="B197" s="89" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="198" spans="2:2">
-      <c r="B198" s="101" t="s">
+      <c r="B198" s="89" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="199" spans="2:2">
-      <c r="B199" s="102" t="s">
+      <c r="B199" s="90" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="200" spans="2:2">
-      <c r="B200" s="101" t="s">
+      <c r="B200" s="89" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="201" spans="2:2">
-      <c r="B201" s="102" t="s">
+      <c r="B201" s="90" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="202" spans="2:2">
-      <c r="B202" s="101" t="s">
+      <c r="B202" s="89" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="203" spans="2:2">
-      <c r="B203" s="101" t="s">
+      <c r="B203" s="89" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="204" spans="2:2">
-      <c r="B204" s="102" t="s">
+      <c r="B204" s="90" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="205" spans="2:2">
-      <c r="B205" s="101" t="s">
+      <c r="B205" s="89" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="206" spans="2:2">
-      <c r="B206" s="101" t="s">
+      <c r="B206" s="89" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="207" spans="2:2">
-      <c r="B207" s="102" t="s">
+      <c r="B207" s="90" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="208" spans="2:2">
-      <c r="B208" s="101" t="s">
+      <c r="B208" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="209" spans="2:2">
-      <c r="B209" s="102" t="s">
+      <c r="B209" s="90" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="210" spans="2:2">
-      <c r="B210" s="101" t="s">
+      <c r="B210" s="89" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="211" spans="2:2">
-      <c r="B211" s="101" t="s">
+      <c r="B211" s="89" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="212" spans="2:2">
-      <c r="B212" s="85" t="s">
+      <c r="B212" s="75" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="213" spans="2:2">
-      <c r="B213" s="101" t="s">
+      <c r="B213" s="89" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="214" spans="2:2">
-      <c r="B214" s="102" t="s">
+      <c r="B214" s="90" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="215" spans="2:2">
-      <c r="B215" s="101" t="s">
+      <c r="B215" s="89" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="216" spans="2:2">
-      <c r="B216" s="101" t="s">
+      <c r="B216" s="89" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="217" spans="2:2">
-      <c r="B217" s="101" t="s">
+      <c r="B217" s="89" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="218" spans="2:2">
-      <c r="B218" s="101" t="s">
+      <c r="B218" s="89" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="219" spans="2:2">
-      <c r="B219" s="101" t="s">
+      <c r="B219" s="89" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="220" spans="2:2">
-      <c r="B220" s="102" t="s">
+      <c r="B220" s="90" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="221" spans="2:2">
-      <c r="B221" s="101" t="s">
+      <c r="B221" s="89" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="222" spans="2:2">
-      <c r="B222" s="101" t="s">
+      <c r="B222" s="89" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="223" spans="2:2">
-      <c r="B223" s="101" t="s">
+      <c r="B223" s="89" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="224" spans="2:2">
-      <c r="B224" s="101" t="s">
+      <c r="B224" s="89" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="225" spans="2:2">
-      <c r="B225" s="85" t="s">
+      <c r="B225" s="75" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="226" spans="2:2">
-      <c r="B226" s="101" t="s">
+      <c r="B226" s="89" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="227" spans="2:2">
-      <c r="B227" s="102" t="s">
+      <c r="B227" s="90" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="228" spans="2:2">
-      <c r="B228" s="101" t="s">
+      <c r="B228" s="89" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="229" spans="2:2">
-      <c r="B229" s="101" t="s">
+      <c r="B229" s="89" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="230" spans="2:2">
-      <c r="B230" s="102" t="s">
+      <c r="B230" s="90" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="231" spans="2:2">
-      <c r="B231" s="101" t="s">
+      <c r="B231" s="89" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="232" spans="2:2">
-      <c r="B232" s="101" t="s">
+      <c r="B232" s="89" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="233" spans="2:2">
-      <c r="B233" s="101" t="s">
+      <c r="B233" s="89" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="234" spans="2:2">
-      <c r="B234" s="106" t="s">
+      <c r="B234" s="94" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="235" spans="2:2">
-      <c r="B235" s="106" t="s">
+      <c r="B235" s="94" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="236" spans="2:2">
-      <c r="B236" s="101" t="s">
+      <c r="B236" s="89" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="237" spans="2:2">
-      <c r="B237" s="102" t="s">
+      <c r="B237" s="90" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="238" spans="2:2">
-      <c r="B238" s="101" t="s">
+      <c r="B238" s="89" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="239" spans="2:2">
-      <c r="B239" s="106" t="s">
+      <c r="B239" s="94" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="240" spans="2:2">
-      <c r="B240" s="106" t="s">
+      <c r="B240" s="94" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="241" spans="2:2">
-      <c r="B241" s="101" t="s">
+      <c r="B241" s="89" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="242" spans="2:2">
-      <c r="B242" s="101" t="s">
+      <c r="B242" s="89" t="s">
         <v>100</v>
       </c>
     </row>
@@ -13309,7 +13739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -13319,7 +13749,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="23.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="22" t="s">
         <v>291</v>
       </c>
     </row>
@@ -13349,7 +13779,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="23.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="22" t="s">
         <v>292</v>
       </c>
     </row>
@@ -13359,28 +13789,28 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5">
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" s="20"/>
+      <c r="B13" s="18"/>
       <c r="C13" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>285</v>
       </c>
     </row>
@@ -13392,7 +13822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A31" workbookViewId="0">
@@ -13402,7 +13832,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:2" ht="21.75">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="63" t="s">
         <v>493</v>
       </c>
     </row>
@@ -13457,46 +13887,46 @@
       </c>
     </row>
     <row r="38" spans="2:11">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
     </row>
     <row r="39" spans="2:11">
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
     </row>
     <row r="40" spans="2:11">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" t="s">
@@ -13519,24 +13949,24 @@
       </c>
     </row>
     <row r="46" spans="2:11">
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
     </row>
     <row r="47" spans="2:11">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" t="s">
@@ -13544,7 +13974,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="20.25">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="64" t="s">
         <v>514</v>
       </c>
     </row>
@@ -13569,7 +13999,7 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="B55" s="75" t="s">
+      <c r="B55" s="65" t="s">
         <v>537</v>
       </c>
     </row>
@@ -13676,89 +14106,89 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="4" spans="1:2" ht="20.25">
-      <c r="A4" s="111" t="s">
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="101" t="s">
         <v>613</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="95" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" s="96"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" s="97" t="s">
+        <v>602</v>
+      </c>
+    </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="107" t="s">
-        <v>601</v>
+      <c r="B5" s="97" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" s="108"/>
+      <c r="B6" s="97" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" s="109" t="s">
-        <v>602</v>
+      <c r="B7" s="97" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" s="109" t="s">
-        <v>603</v>
-      </c>
+      <c r="B8" s="96"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="B9" s="109" t="s">
-        <v>604</v>
-      </c>
+      <c r="B9" s="96"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="B10" s="109" t="s">
-        <v>605</v>
+      <c r="B10" s="98" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" s="108"/>
+      <c r="B11" s="96"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="108"/>
+      <c r="B12" s="97" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="110" t="s">
-        <v>612</v>
+      <c r="B13" s="97" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" s="108"/>
+      <c r="B14" s="97" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="B15" s="109" t="s">
-        <v>606</v>
+      <c r="B15" s="97" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="B16" s="109" t="s">
-        <v>607</v>
+      <c r="B16" s="97" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="109" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="109" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="109" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="109" t="s">
+      <c r="B17" s="97" t="s">
         <v>611</v>
       </c>
     </row>
